--- a/database/industries/methanol/shekolor/cost/quarterly.xlsx
+++ b/database/industries/methanol/shekolor/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shekolor\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekolor\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFC61DD-4570-4B2B-A2FE-328BD211F02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84349C74-4A07-49E9-9254-806B6E2CC58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/02</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/08</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1400/03</t>
+  </si>
+  <si>
     <t>فصل چهارم منتهی به 1400/08</t>
   </si>
   <si>
@@ -95,6 +110,9 @@
   </si>
   <si>
     <t>مقدار موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1400/05</t>
   </si>
   <si>
     <t>مواد اولیه وارداتی</t>
@@ -712,16 +730,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I242"/>
+  <dimension ref="B1:N242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -730,8 +748,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -742,8 +765,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -754,8 +782,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -764,8 +797,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -776,8 +814,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -788,8 +831,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -798,8 +846,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -820,8 +873,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -830,103 +898,168 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>10</v>
+      <c r="E10" s="9">
+        <v>113719</v>
       </c>
       <c r="F10" s="9">
+        <v>4666</v>
+      </c>
+      <c r="G10" s="9">
+        <v>103052</v>
+      </c>
+      <c r="H10" s="9">
+        <v>361088</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="9">
         <v>201986</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>173612</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>180471</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>176375</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>10</v>
+      <c r="E11" s="11">
+        <v>26959</v>
       </c>
       <c r="F11" s="11">
+        <v>2003</v>
+      </c>
+      <c r="G11" s="11">
+        <v>28620</v>
+      </c>
+      <c r="H11" s="11">
+        <v>65315</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="11">
         <v>38788</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>69654</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>59721</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>60847</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>10</v>
+      <c r="E12" s="9">
+        <v>180708</v>
       </c>
       <c r="F12" s="9">
+        <v>132050</v>
+      </c>
+      <c r="G12" s="9">
+        <v>218779</v>
+      </c>
+      <c r="H12" s="9">
+        <v>421455</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="9">
         <v>372614</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>422735</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>496112</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>487714</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
-        <v>10</v>
+      <c r="E13" s="13">
+        <v>321386</v>
       </c>
       <c r="F13" s="13">
+        <v>138719</v>
+      </c>
+      <c r="G13" s="13">
+        <v>350451</v>
+      </c>
+      <c r="H13" s="13">
+        <v>847858</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="13">
         <v>613388</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>666001</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>736304</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>724936</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>10</v>
+      <c r="E14" s="9">
+        <v>0</v>
       </c>
       <c r="F14" s="9">
         <v>0</v>
@@ -937,62 +1070,107 @@
       <c r="H14" s="9">
         <v>0</v>
       </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
-        <v>10</v>
+      <c r="E15" s="13">
+        <v>321386</v>
       </c>
       <c r="F15" s="13">
+        <v>138719</v>
+      </c>
+      <c r="G15" s="13">
+        <v>350451</v>
+      </c>
+      <c r="H15" s="13">
+        <v>847858</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="13">
         <v>613388</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>666001</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>736304</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>724936</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>10</v>
+      <c r="E16" s="9">
+        <v>17</v>
       </c>
       <c r="F16" s="9">
+        <v>-2507</v>
+      </c>
+      <c r="G16" s="9">
+        <v>467</v>
+      </c>
+      <c r="H16" s="9">
+        <v>3371</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="9">
         <v>672</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-679</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-550</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>982</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>10</v>
+      <c r="E17" s="11">
+        <v>0</v>
       </c>
       <c r="F17" s="11">
         <v>0</v>
@@ -1003,143 +1181,248 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="15" t="s">
-        <v>10</v>
+      <c r="E18" s="15">
+        <v>321403</v>
       </c>
       <c r="F18" s="15">
+        <v>136212</v>
+      </c>
+      <c r="G18" s="15">
+        <v>350918</v>
+      </c>
+      <c r="H18" s="15">
+        <v>851229</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="15">
         <v>614060</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>665322</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>735754</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>725918</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>76230</v>
+      </c>
+      <c r="G19" s="11">
+        <v>117240</v>
+      </c>
+      <c r="H19" s="11">
+        <v>-3605</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="11">
         <v>113635</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>118678</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>165038</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>201413</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>216401</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-21851</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-36639</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-128895</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-9506</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="9">
         <v>-118678</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-165038</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-201413</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-216401</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-252192</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="13" t="s">
-        <v>10</v>
+      <c r="E21" s="13">
+        <v>299552</v>
       </c>
       <c r="F21" s="13">
+        <v>175803</v>
+      </c>
+      <c r="G21" s="13">
+        <v>339263</v>
+      </c>
+      <c r="H21" s="13">
+        <v>838118</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="13">
         <v>567700</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>628947</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>720766</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>690127</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>10</v>
+      <c r="E22" s="9">
+        <v>-33547</v>
       </c>
       <c r="F22" s="9">
-        <v>0</v>
+        <v>75123</v>
       </c>
       <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
         <v>132352</v>
       </c>
-      <c r="H22" s="9">
+      <c r="M22" s="9">
         <v>77437</v>
       </c>
-      <c r="I22" s="9">
+      <c r="N22" s="9">
         <v>163187</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
-        <v>10</v>
+      <c r="E23" s="13">
+        <v>266005</v>
       </c>
       <c r="F23" s="13">
+        <v>250926</v>
+      </c>
+      <c r="G23" s="13">
+        <v>339263</v>
+      </c>
+      <c r="H23" s="13">
+        <v>838118</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="13">
         <v>567700</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>761299</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>798203</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>853314</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1148,8 +1431,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1158,8 +1446,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1168,10 +1461,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1179,19 +1477,34 @@
         <v>4</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="H27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1200,294 +1513,479 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="11">
+        <v>15</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="11">
         <v>79</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>55</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>42</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>10</v>
+      <c r="E33" s="9">
+        <v>181</v>
       </c>
       <c r="F33" s="9">
+        <v>64</v>
+      </c>
+      <c r="G33" s="9">
+        <v>161</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="9">
+        <v>67</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="9">
         <v>21</v>
       </c>
-      <c r="G33" s="9">
+      <c r="L33" s="9">
         <v>12</v>
       </c>
-      <c r="H33" s="9">
+      <c r="M33" s="9">
         <v>19</v>
       </c>
-      <c r="I33" s="9">
+      <c r="N33" s="9">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11">
+        <v>106</v>
+      </c>
+      <c r="F34" s="11">
+        <v>52</v>
+      </c>
+      <c r="G34" s="11">
+        <v>57</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="11">
+        <v>65</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="11">
+        <v>2</v>
+      </c>
+      <c r="L34" s="11">
+        <v>62</v>
+      </c>
+      <c r="M34" s="11">
+        <v>16</v>
+      </c>
+      <c r="N34" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9">
+        <v>110</v>
+      </c>
+      <c r="F35" s="9">
+        <v>80</v>
+      </c>
+      <c r="G35" s="9">
+        <v>104</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="9">
+        <v>80</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="9">
+        <v>109</v>
+      </c>
+      <c r="L35" s="9">
+        <v>52</v>
+      </c>
+      <c r="M35" s="9">
+        <v>38</v>
+      </c>
+      <c r="N35" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11">
+        <v>2746</v>
+      </c>
+      <c r="F36" s="11">
+        <v>2479</v>
+      </c>
+      <c r="G36" s="11">
+        <v>2998</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="11">
+        <v>825</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="11">
+        <v>3003</v>
+      </c>
+      <c r="L36" s="11">
+        <v>3318</v>
+      </c>
+      <c r="M36" s="11">
+        <v>2504</v>
+      </c>
+      <c r="N36" s="11">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9">
+        <v>64</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9">
+        <v>65</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="11">
-        <v>2</v>
-      </c>
-      <c r="G34" s="11">
-        <v>62</v>
-      </c>
-      <c r="H34" s="11">
-        <v>16</v>
-      </c>
-      <c r="I34" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="9">
-        <v>109</v>
-      </c>
-      <c r="G35" s="9">
-        <v>52</v>
-      </c>
-      <c r="H35" s="9">
-        <v>38</v>
-      </c>
-      <c r="I35" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="11">
-        <v>3003</v>
-      </c>
-      <c r="G36" s="11">
-        <v>3318</v>
-      </c>
-      <c r="H36" s="11">
-        <v>2504</v>
-      </c>
-      <c r="I36" s="11">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F39" s="9">
+        <v>2</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="9">
         <v>1</v>
       </c>
-      <c r="G39" s="9">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9">
+      <c r="J39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="9">
         <v>1</v>
       </c>
-      <c r="I39" s="9">
+      <c r="L39" s="9">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
+        <v>1</v>
+      </c>
+      <c r="N39" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>0</v>
+        <v>3207</v>
       </c>
       <c r="F40" s="13">
+        <v>2678</v>
+      </c>
+      <c r="G40" s="13">
+        <v>3385</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13">
+        <v>1038</v>
+      </c>
+      <c r="J40" s="13">
+        <v>0</v>
+      </c>
+      <c r="K40" s="13">
         <v>3215</v>
       </c>
-      <c r="G40" s="13">
+      <c r="L40" s="13">
         <v>3499</v>
       </c>
-      <c r="H40" s="13">
+      <c r="M40" s="13">
         <v>2620</v>
       </c>
-      <c r="I40" s="13">
+      <c r="N40" s="13">
         <v>2039</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1496,8 +1994,13 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1506,8 +2009,13 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1516,10 +2024,15 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -1527,19 +2040,34 @@
         <v>4</v>
       </c>
       <c r="F44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="H44" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1548,257 +2076,412 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="F48" s="9">
+        <v>2820</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="11">
+      <c r="E49" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="11">
+        <v>1283</v>
+      </c>
+      <c r="J49" s="11">
         <v>1711</v>
       </c>
-      <c r="F49" s="11">
+      <c r="K49" s="11">
         <v>656</v>
       </c>
-      <c r="G49" s="11">
+      <c r="L49" s="11">
         <v>772</v>
       </c>
-      <c r="H49" s="11">
+      <c r="M49" s="11">
         <v>700</v>
       </c>
-      <c r="I49" s="11">
+      <c r="N49" s="11">
         <v>662</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
+        <v>183</v>
+      </c>
+      <c r="F50" s="9">
+        <v>146</v>
+      </c>
+      <c r="G50" s="9">
+        <v>-296</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="9">
+        <v>17</v>
+      </c>
+      <c r="J50" s="9">
         <v>195</v>
       </c>
-      <c r="F50" s="9">
+      <c r="K50" s="9">
         <v>122</v>
       </c>
-      <c r="G50" s="9">
+      <c r="L50" s="9">
         <v>53</v>
       </c>
-      <c r="H50" s="9">
+      <c r="M50" s="9">
         <v>109</v>
       </c>
-      <c r="I50" s="9">
+      <c r="N50" s="9">
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
+        <v>77</v>
+      </c>
+      <c r="F51" s="11">
+        <v>107</v>
+      </c>
+      <c r="G51" s="11">
+        <v>-81</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="11">
+        <v>-68</v>
+      </c>
+      <c r="J51" s="11">
         <v>82</v>
       </c>
-      <c r="F51" s="11">
+      <c r="K51" s="11">
         <v>96</v>
       </c>
-      <c r="G51" s="11">
+      <c r="L51" s="11">
         <v>45</v>
       </c>
-      <c r="H51" s="11">
+      <c r="M51" s="11">
         <v>62</v>
       </c>
-      <c r="I51" s="11">
+      <c r="N51" s="11">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
+        <v>644</v>
+      </c>
+      <c r="F52" s="9">
+        <v>601</v>
+      </c>
+      <c r="G52" s="9">
+        <v>-490</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="9">
+        <v>435</v>
+      </c>
+      <c r="J52" s="9">
         <v>1430</v>
       </c>
-      <c r="F52" s="9">
+      <c r="K52" s="9">
         <v>520</v>
       </c>
-      <c r="G52" s="9">
+      <c r="L52" s="9">
         <v>568</v>
       </c>
-      <c r="H52" s="9">
+      <c r="M52" s="9">
         <v>537</v>
       </c>
-      <c r="I52" s="9">
+      <c r="N52" s="9">
         <v>979</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
+        <v>11664</v>
+      </c>
+      <c r="F53" s="11">
+        <v>9157</v>
+      </c>
+      <c r="G53" s="11">
+        <v>-6827</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="11">
+        <v>13944</v>
+      </c>
+      <c r="J53" s="11">
         <v>30853</v>
       </c>
-      <c r="F53" s="11">
+      <c r="K53" s="11">
         <v>12228</v>
       </c>
-      <c r="G53" s="11">
+      <c r="L53" s="11">
         <v>12189</v>
       </c>
-      <c r="H53" s="11">
+      <c r="M53" s="11">
         <v>11549</v>
       </c>
-      <c r="I53" s="11">
+      <c r="N53" s="11">
         <v>13614</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D54" s="9"/>
-      <c r="E54" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>10</v>
+      <c r="E54" s="9">
+        <v>581</v>
+      </c>
+      <c r="F54" s="9">
+        <v>615</v>
+      </c>
+      <c r="G54" s="9">
+        <v>-188</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G55" s="11">
+        <v>0</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="9">
-        <v>2</v>
+      <c r="E56" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="F56" s="9">
         <v>0</v>
@@ -1806,36 +2489,66 @@
       <c r="G56" s="9">
         <v>2</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="9">
         <v>2</v>
       </c>
-      <c r="I56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="9">
+        <v>2</v>
+      </c>
+      <c r="K56" s="9">
+        <v>0</v>
+      </c>
+      <c r="L56" s="9">
+        <v>2</v>
+      </c>
+      <c r="M56" s="9">
+        <v>2</v>
+      </c>
+      <c r="N56" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
+        <v>13149</v>
+      </c>
+      <c r="F57" s="13">
+        <v>13446</v>
+      </c>
+      <c r="G57" s="13">
+        <v>-7880</v>
+      </c>
+      <c r="H57" s="13">
+        <v>0</v>
+      </c>
+      <c r="I57" s="13">
+        <v>15613</v>
+      </c>
+      <c r="J57" s="13">
         <v>34273</v>
       </c>
-      <c r="F57" s="13">
+      <c r="K57" s="13">
         <v>13622</v>
       </c>
-      <c r="G57" s="13">
+      <c r="L57" s="13">
         <v>13629</v>
       </c>
-      <c r="H57" s="13">
+      <c r="M57" s="13">
         <v>12959</v>
       </c>
-      <c r="I57" s="13">
+      <c r="N57" s="13">
         <v>15437</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1844,8 +2557,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1854,8 +2572,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1864,10 +2587,15 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -1875,19 +2603,34 @@
         <v>4</v>
       </c>
       <c r="F61" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="H61" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I61" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1896,294 +2639,479 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="F65" s="9">
+        <v>2820</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11">
+      <c r="E66" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="11">
+        <v>1249</v>
+      </c>
+      <c r="J66" s="11">
         <v>1695</v>
       </c>
-      <c r="F66" s="11">
+      <c r="K66" s="11">
         <v>680</v>
       </c>
-      <c r="G66" s="11">
+      <c r="L66" s="11">
         <v>785</v>
       </c>
-      <c r="H66" s="11">
+      <c r="M66" s="11">
         <v>679</v>
       </c>
-      <c r="I66" s="11">
+      <c r="N66" s="11">
         <v>714</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
+        <v>203</v>
+      </c>
+      <c r="F67" s="9">
+        <v>143</v>
+      </c>
+      <c r="G67" s="9">
+        <v>-255</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" s="9">
+        <v>42</v>
+      </c>
+      <c r="J67" s="9">
         <v>254</v>
       </c>
-      <c r="F67" s="9">
+      <c r="K67" s="9">
         <v>131</v>
       </c>
-      <c r="G67" s="9">
+      <c r="L67" s="9">
         <v>46</v>
       </c>
-      <c r="H67" s="9">
+      <c r="M67" s="9">
         <v>76</v>
       </c>
-      <c r="I67" s="9">
+      <c r="N67" s="9">
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
+        <v>126</v>
+      </c>
+      <c r="F68" s="11">
+        <v>94</v>
+      </c>
+      <c r="G68" s="11">
+        <v>-145</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" s="11">
+        <v>-13</v>
+      </c>
+      <c r="J68" s="11">
         <v>198</v>
       </c>
-      <c r="F68" s="11">
+      <c r="K68" s="11">
         <v>36</v>
       </c>
-      <c r="G68" s="11">
+      <c r="L68" s="11">
         <v>91</v>
       </c>
-      <c r="H68" s="11">
+      <c r="M68" s="11">
         <v>76</v>
       </c>
-      <c r="I68" s="11">
+      <c r="N68" s="11">
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
+        <v>650</v>
+      </c>
+      <c r="F69" s="9">
+        <v>601</v>
+      </c>
+      <c r="G69" s="9">
+        <v>-496</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" s="9">
+        <v>449</v>
+      </c>
+      <c r="J69" s="9">
         <v>1426</v>
       </c>
-      <c r="F69" s="9">
+      <c r="K69" s="9">
         <v>577</v>
       </c>
-      <c r="G69" s="9">
+      <c r="L69" s="9">
         <v>582</v>
       </c>
-      <c r="H69" s="9">
+      <c r="M69" s="9">
         <v>535</v>
       </c>
-      <c r="I69" s="9">
+      <c r="N69" s="9">
         <v>926</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
+        <v>11413</v>
+      </c>
+      <c r="F70" s="11">
+        <v>10811</v>
+      </c>
+      <c r="G70" s="11">
+        <v>-6262</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" s="11">
+        <v>12263</v>
+      </c>
+      <c r="J70" s="11">
         <v>30664</v>
       </c>
-      <c r="F70" s="11">
+      <c r="K70" s="11">
         <v>11913</v>
       </c>
-      <c r="G70" s="11">
+      <c r="L70" s="11">
         <v>13003</v>
       </c>
-      <c r="H70" s="11">
+      <c r="M70" s="11">
         <v>12173</v>
       </c>
-      <c r="I70" s="11">
+      <c r="N70" s="11">
         <v>13979</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>10</v>
+      <c r="E71" s="9">
+        <v>580</v>
+      </c>
+      <c r="F71" s="9">
+        <v>566</v>
+      </c>
+      <c r="G71" s="9">
+        <v>-266</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G72" s="11">
+        <v>0</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9">
-        <v>2</v>
+      <c r="E73" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="F73" s="9">
         <v>1</v>
       </c>
       <c r="G73" s="9">
+        <v>2</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" s="9">
         <v>1</v>
       </c>
-      <c r="H73" s="9">
+      <c r="J73" s="9">
+        <v>2</v>
+      </c>
+      <c r="K73" s="9">
         <v>1</v>
       </c>
-      <c r="I73" s="9">
+      <c r="L73" s="9">
+        <v>1</v>
+      </c>
+      <c r="M73" s="9">
+        <v>1</v>
+      </c>
+      <c r="N73" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
+        <v>12972</v>
+      </c>
+      <c r="F74" s="13">
+        <v>15036</v>
+      </c>
+      <c r="G74" s="13">
+        <v>-7422</v>
+      </c>
+      <c r="H74" s="13">
+        <v>0</v>
+      </c>
+      <c r="I74" s="13">
+        <v>13991</v>
+      </c>
+      <c r="J74" s="13">
         <v>34239</v>
       </c>
-      <c r="F74" s="13">
+      <c r="K74" s="13">
         <v>13338</v>
       </c>
-      <c r="G74" s="13">
+      <c r="L74" s="13">
         <v>14508</v>
       </c>
-      <c r="H74" s="13">
+      <c r="M74" s="13">
         <v>13540</v>
       </c>
-      <c r="I74" s="13">
+      <c r="N74" s="13">
         <v>15798</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2192,8 +3120,13 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2202,8 +3135,13 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2212,10 +3150,15 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2223,19 +3166,34 @@
         <v>4</v>
       </c>
       <c r="F78" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G78" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="H78" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I78" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I78" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2244,294 +3202,479 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G80" s="9">
+        <v>0</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D81" s="11"/>
-      <c r="E81" s="11" t="s">
-        <v>10</v>
+      <c r="E81" s="11">
+        <v>0</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="F82" s="9">
+        <v>0</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D83" s="11"/>
-      <c r="E83" s="11">
+      <c r="E83" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" s="11">
+        <v>97</v>
+      </c>
+      <c r="J83" s="11">
         <v>79</v>
       </c>
-      <c r="F83" s="11">
+      <c r="K83" s="11">
         <v>55</v>
       </c>
-      <c r="G83" s="11">
+      <c r="L83" s="11">
         <v>42</v>
       </c>
-      <c r="H83" s="11">
+      <c r="M83" s="11">
         <v>63</v>
       </c>
-      <c r="I83" s="11">
+      <c r="N83" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9">
+        <v>161</v>
+      </c>
+      <c r="F84" s="9">
+        <v>67</v>
+      </c>
+      <c r="G84" s="9">
+        <v>80</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I84" s="9">
+        <v>58</v>
+      </c>
+      <c r="J84" s="9">
         <v>21</v>
       </c>
-      <c r="F84" s="9">
+      <c r="K84" s="9">
         <v>12</v>
       </c>
-      <c r="G84" s="9">
+      <c r="L84" s="9">
         <v>19</v>
       </c>
-      <c r="H84" s="9">
+      <c r="M84" s="9">
         <v>52</v>
       </c>
-      <c r="I84" s="9">
+      <c r="N84" s="9">
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
+        <v>57</v>
+      </c>
+      <c r="F85" s="11">
+        <v>65</v>
+      </c>
+      <c r="G85" s="11">
+        <v>118</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" s="11">
+        <v>76</v>
+      </c>
+      <c r="J85" s="11">
         <v>2</v>
       </c>
-      <c r="F85" s="11">
+      <c r="K85" s="11">
         <v>62</v>
       </c>
-      <c r="G85" s="11">
+      <c r="L85" s="11">
         <v>16</v>
       </c>
-      <c r="H85" s="11">
+      <c r="M85" s="11">
         <v>2</v>
       </c>
-      <c r="I85" s="11">
+      <c r="N85" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
+        <v>104</v>
+      </c>
+      <c r="F86" s="9">
+        <v>80</v>
+      </c>
+      <c r="G86" s="9">
+        <v>104</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I86" s="9">
+        <v>90</v>
+      </c>
+      <c r="J86" s="9">
         <v>108</v>
       </c>
-      <c r="F86" s="9">
+      <c r="K86" s="9">
         <v>52</v>
       </c>
-      <c r="G86" s="9">
+      <c r="L86" s="9">
         <v>38</v>
       </c>
-      <c r="H86" s="9">
+      <c r="M86" s="9">
         <v>40</v>
       </c>
-      <c r="I86" s="9">
+      <c r="N86" s="9">
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
+        <v>2998</v>
+      </c>
+      <c r="F87" s="11">
+        <v>825</v>
+      </c>
+      <c r="G87" s="11">
+        <v>31087</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" s="11">
+        <v>2841</v>
+      </c>
+      <c r="J87" s="11">
         <v>3004</v>
       </c>
-      <c r="F87" s="11">
+      <c r="K87" s="11">
         <v>3318</v>
       </c>
-      <c r="G87" s="11">
+      <c r="L87" s="11">
         <v>2504</v>
       </c>
-      <c r="H87" s="11">
+      <c r="M87" s="11">
         <v>1880</v>
       </c>
-      <c r="I87" s="11">
+      <c r="N87" s="11">
         <v>1515</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D88" s="9"/>
-      <c r="E88" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>10</v>
+      <c r="E88" s="9">
+        <v>65</v>
+      </c>
+      <c r="F88" s="9">
+        <v>50</v>
+      </c>
+      <c r="G88" s="9">
+        <v>63</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G89" s="11">
+        <v>0</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D90" s="9"/>
-      <c r="E90" s="9">
-        <v>2</v>
+      <c r="E90" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="F90" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="9">
         <v>1</v>
       </c>
-      <c r="H90" s="9">
+      <c r="H90" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" s="9">
         <v>2</v>
       </c>
-      <c r="I90" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="9">
+        <v>2</v>
+      </c>
+      <c r="K90" s="9">
+        <v>0</v>
+      </c>
+      <c r="L90" s="9">
+        <v>1</v>
+      </c>
+      <c r="M90" s="9">
+        <v>2</v>
+      </c>
+      <c r="N90" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13">
+        <v>3385</v>
+      </c>
+      <c r="F91" s="13">
+        <v>1088</v>
+      </c>
+      <c r="G91" s="13">
+        <v>31453</v>
+      </c>
+      <c r="H91" s="13">
+        <v>0</v>
+      </c>
+      <c r="I91" s="13">
+        <v>3164</v>
+      </c>
+      <c r="J91" s="13">
         <v>3216</v>
       </c>
-      <c r="F91" s="13">
+      <c r="K91" s="13">
         <v>3499</v>
       </c>
-      <c r="G91" s="13">
+      <c r="L91" s="13">
         <v>2620</v>
       </c>
-      <c r="H91" s="13">
+      <c r="M91" s="13">
         <v>2039</v>
       </c>
-      <c r="I91" s="13">
+      <c r="N91" s="13">
         <v>1678</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2540,8 +3683,13 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2550,8 +3698,13 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2560,10 +3713,15 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -2571,19 +3729,34 @@
         <v>4</v>
       </c>
       <c r="F95" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G95" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="H95" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I95" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I95" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2592,294 +3765,479 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N97" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M98" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N98" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="F99" s="9">
+        <v>0</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N99" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="11">
+        <v>15</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K100" s="11">
         <v>23062</v>
       </c>
-      <c r="G100" s="11">
+      <c r="L100" s="11">
         <v>10176</v>
       </c>
-      <c r="H100" s="11">
+      <c r="M100" s="11">
         <v>7023</v>
       </c>
-      <c r="I100" s="11">
+      <c r="N100" s="11">
         <v>8854</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
-        <v>10</v>
+      <c r="E101" s="9">
+        <v>9962</v>
       </c>
       <c r="F101" s="9">
+        <v>3601</v>
+      </c>
+      <c r="G101" s="9">
+        <v>8904</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" s="9">
+        <v>3828</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K101" s="9">
         <v>1311</v>
       </c>
-      <c r="G101" s="9">
+      <c r="L101" s="9">
         <v>1070</v>
       </c>
-      <c r="H101" s="9">
+      <c r="M101" s="9">
         <v>1886</v>
       </c>
-      <c r="I101" s="9">
+      <c r="N101" s="9">
         <v>17556</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C102" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="D102" s="11"/>
-      <c r="E102" s="11" t="s">
-        <v>10</v>
+      <c r="E102" s="11">
+        <v>3652</v>
       </c>
       <c r="F102" s="11">
+        <v>2478</v>
+      </c>
+      <c r="G102" s="11">
+        <v>2438</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I102" s="11">
+        <v>5710</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K102" s="11">
         <v>292</v>
       </c>
-      <c r="G102" s="11">
+      <c r="L102" s="11">
         <v>7541</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>2161</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>440</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="9" t="s">
-        <v>10</v>
+      <c r="E103" s="9">
+        <v>587</v>
       </c>
       <c r="F103" s="9">
+        <v>484</v>
+      </c>
+      <c r="G103" s="9">
+        <v>576</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I103" s="9">
+        <v>484</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K103" s="9">
         <v>867</v>
       </c>
-      <c r="G103" s="9">
+      <c r="L103" s="9">
         <v>418</v>
       </c>
-      <c r="H103" s="9">
+      <c r="M103" s="9">
         <v>351</v>
       </c>
-      <c r="I103" s="9">
+      <c r="N103" s="9">
         <v>363</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D104" s="11"/>
-      <c r="E104" s="11" t="s">
-        <v>10</v>
+      <c r="E104" s="11">
+        <v>1648</v>
       </c>
       <c r="F104" s="11">
+        <v>964</v>
+      </c>
+      <c r="G104" s="11">
+        <v>1799</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104" s="11">
+        <v>1034</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K104" s="11">
         <v>5557</v>
       </c>
-      <c r="G104" s="11">
+      <c r="L104" s="11">
         <v>8628</v>
       </c>
-      <c r="H104" s="11">
+      <c r="M104" s="11">
         <v>6512</v>
       </c>
-      <c r="I104" s="11">
+      <c r="N104" s="11">
         <v>4890</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D105" s="9"/>
-      <c r="E105" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>10</v>
+      <c r="E105" s="9">
+        <v>2783</v>
+      </c>
+      <c r="F105" s="9">
+        <v>59</v>
+      </c>
+      <c r="G105" s="9">
+        <v>3254</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M105" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N105" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K106" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M106" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N106" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F107" s="9">
+        <v>93</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" s="9">
+        <v>47</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K107" s="9">
         <v>195</v>
       </c>
-      <c r="G107" s="9">
-        <v>0</v>
-      </c>
-      <c r="H107" s="9">
+      <c r="L107" s="9">
+        <v>0</v>
+      </c>
+      <c r="M107" s="9">
         <v>363</v>
       </c>
-      <c r="I107" s="9">
+      <c r="N107" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13">
-        <v>0</v>
+        <v>18632</v>
       </c>
       <c r="F108" s="13">
+        <v>7679</v>
+      </c>
+      <c r="G108" s="13">
+        <v>16971</v>
+      </c>
+      <c r="H108" s="13">
+        <v>0</v>
+      </c>
+      <c r="I108" s="13">
+        <v>11103</v>
+      </c>
+      <c r="J108" s="13">
+        <v>0</v>
+      </c>
+      <c r="K108" s="13">
         <v>31284</v>
       </c>
-      <c r="G108" s="13">
+      <c r="L108" s="13">
         <v>27833</v>
       </c>
-      <c r="H108" s="13">
+      <c r="M108" s="13">
         <v>18296</v>
       </c>
-      <c r="I108" s="13">
+      <c r="N108" s="13">
         <v>32569</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2888,8 +4246,13 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2898,8 +4261,13 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2908,10 +4276,15 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -2919,19 +4292,34 @@
         <v>4</v>
       </c>
       <c r="F112" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G112" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="H112" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I112" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I112" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2940,294 +4328,479 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G114" s="9">
+        <v>0</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K114" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L114" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M114" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N114" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K115" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L115" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M115" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N115" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="F116" s="9">
+        <v>38286</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K116" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L116" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M116" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N116" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D117" s="11"/>
-      <c r="E117" s="11">
+      <c r="E117" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117" s="11">
+        <v>258453</v>
+      </c>
+      <c r="J117" s="11">
         <v>360444</v>
       </c>
-      <c r="F117" s="11">
+      <c r="K117" s="11">
         <v>141887</v>
       </c>
-      <c r="G117" s="11">
+      <c r="L117" s="11">
         <v>115460</v>
       </c>
-      <c r="H117" s="11">
+      <c r="M117" s="11">
         <v>119454</v>
       </c>
-      <c r="I117" s="11">
+      <c r="N117" s="11">
         <v>76222</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9">
+        <v>10134</v>
+      </c>
+      <c r="F118" s="9">
+        <v>8369</v>
+      </c>
+      <c r="G118" s="9">
+        <v>-15506</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" s="9">
+        <v>1645</v>
+      </c>
+      <c r="J118" s="9">
         <v>12044</v>
       </c>
-      <c r="F118" s="9">
+      <c r="K118" s="9">
         <v>9812</v>
       </c>
-      <c r="G118" s="9">
+      <c r="L118" s="9">
         <v>4968</v>
       </c>
-      <c r="H118" s="9">
+      <c r="M118" s="9">
         <v>29684</v>
       </c>
-      <c r="I118" s="9">
+      <c r="N118" s="9">
         <v>32621</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C119" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11">
+        <v>3525</v>
+      </c>
+      <c r="F119" s="11">
+        <v>9360</v>
+      </c>
+      <c r="G119" s="11">
+        <v>16004</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I119" s="11">
+        <v>-5093</v>
+      </c>
+      <c r="J119" s="11">
         <v>9270</v>
       </c>
-      <c r="F119" s="11">
+      <c r="K119" s="11">
         <v>11457</v>
       </c>
-      <c r="G119" s="11">
+      <c r="L119" s="11">
         <v>5816</v>
       </c>
-      <c r="H119" s="11">
+      <c r="M119" s="11">
         <v>8471</v>
       </c>
-      <c r="I119" s="11">
+      <c r="N119" s="11">
         <v>7123</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9">
+        <v>3401</v>
+      </c>
+      <c r="F120" s="9">
+        <v>3335</v>
+      </c>
+      <c r="G120" s="9">
+        <v>-1617</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I120" s="9">
+        <v>3779</v>
+      </c>
+      <c r="J120" s="9">
         <v>9984</v>
       </c>
-      <c r="F120" s="9">
+      <c r="K120" s="9">
         <v>3586</v>
       </c>
-      <c r="G120" s="9">
+      <c r="L120" s="9">
         <v>5665</v>
       </c>
-      <c r="H120" s="9">
+      <c r="M120" s="9">
         <v>6657</v>
       </c>
-      <c r="I120" s="9">
+      <c r="N120" s="9">
         <v>12852</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
+        <v>6998</v>
+      </c>
+      <c r="F121" s="11">
+        <v>10988</v>
+      </c>
+      <c r="G121" s="11">
+        <v>12358</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121" s="11">
+        <v>27936</v>
+      </c>
+      <c r="J121" s="11">
         <v>53264</v>
       </c>
-      <c r="F121" s="11">
+      <c r="K121" s="11">
         <v>31793</v>
       </c>
-      <c r="G121" s="11">
+      <c r="L121" s="11">
         <v>31692</v>
       </c>
-      <c r="H121" s="11">
+      <c r="M121" s="11">
         <v>30028</v>
       </c>
-      <c r="I121" s="11">
+      <c r="N121" s="11">
         <v>35396</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D122" s="9"/>
-      <c r="E122" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>10</v>
+      <c r="E122" s="9">
+        <v>28340</v>
+      </c>
+      <c r="F122" s="9">
+        <v>39772</v>
+      </c>
+      <c r="G122" s="9">
+        <v>72794</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K122" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L122" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M122" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N122" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G123" s="11">
+        <v>0</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L123" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M123" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N123" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D124" s="9"/>
-      <c r="E124" s="9">
+      <c r="E124" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" s="9">
+        <v>0</v>
+      </c>
+      <c r="G124" s="9">
+        <v>296</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I124" s="9">
         <v>289</v>
       </c>
-      <c r="F124" s="9">
-        <v>0</v>
-      </c>
-      <c r="G124" s="9">
+      <c r="J124" s="9">
+        <v>289</v>
+      </c>
+      <c r="K124" s="9">
+        <v>0</v>
+      </c>
+      <c r="L124" s="9">
         <v>474</v>
       </c>
-      <c r="H124" s="9">
+      <c r="M124" s="9">
         <v>450</v>
       </c>
-      <c r="I124" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N124" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="13">
+        <v>52398</v>
+      </c>
+      <c r="F125" s="13">
+        <v>110110</v>
+      </c>
+      <c r="G125" s="13">
+        <v>84329</v>
+      </c>
+      <c r="H125" s="13">
+        <v>0</v>
+      </c>
+      <c r="I125" s="13">
+        <v>287009</v>
+      </c>
+      <c r="J125" s="13">
         <v>445295</v>
       </c>
-      <c r="F125" s="13">
+      <c r="K125" s="13">
         <v>198535</v>
       </c>
-      <c r="G125" s="13">
+      <c r="L125" s="13">
         <v>164075</v>
       </c>
-      <c r="H125" s="13">
+      <c r="M125" s="13">
         <v>194744</v>
       </c>
-      <c r="I125" s="13">
+      <c r="N125" s="13">
         <v>164214</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3236,8 +4809,13 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -3246,8 +4824,13 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3256,10 +4839,15 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -3267,19 +4855,34 @@
         <v>4</v>
       </c>
       <c r="F129" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G129" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G129" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="H129" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I129" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I129" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K129" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L129" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M129" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N129" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3288,294 +4891,479 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G131" s="9">
+        <v>0</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N131" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J132" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K132" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L132" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M132" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N132" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="F133" s="9">
+        <v>38286</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K133" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L133" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M133" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N133" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D134" s="11"/>
-      <c r="E134" s="11">
+      <c r="E134" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I134" s="11">
+        <v>250762</v>
+      </c>
+      <c r="J134" s="11">
         <v>347640</v>
       </c>
-      <c r="F134" s="11">
+      <c r="K134" s="11">
         <v>154773</v>
       </c>
-      <c r="G134" s="11">
+      <c r="L134" s="11">
         <v>118613</v>
       </c>
-      <c r="H134" s="11">
+      <c r="M134" s="11">
         <v>117623</v>
       </c>
-      <c r="I134" s="11">
+      <c r="N134" s="11">
         <v>83888</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
+        <v>11192</v>
+      </c>
+      <c r="F135" s="9">
+        <v>8142</v>
+      </c>
+      <c r="G135" s="9">
+        <v>-12952</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I135" s="9">
+        <v>3054</v>
+      </c>
+      <c r="J135" s="9">
         <v>15505</v>
       </c>
-      <c r="F135" s="9">
+      <c r="K135" s="9">
         <v>10053</v>
       </c>
-      <c r="G135" s="9">
+      <c r="L135" s="9">
         <v>4152</v>
       </c>
-      <c r="H135" s="9">
+      <c r="M135" s="9">
         <v>14014</v>
       </c>
-      <c r="I135" s="9">
+      <c r="N135" s="9">
         <v>37310</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C136" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
+        <v>4739</v>
+      </c>
+      <c r="F136" s="11">
+        <v>6128</v>
+      </c>
+      <c r="G136" s="11">
+        <v>7033</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I136" s="11">
+        <v>2290</v>
+      </c>
+      <c r="J136" s="11">
         <v>21148</v>
       </c>
-      <c r="F136" s="11">
+      <c r="K136" s="11">
         <v>4208</v>
       </c>
-      <c r="G136" s="11">
+      <c r="L136" s="11">
         <v>11196</v>
       </c>
-      <c r="H136" s="11">
+      <c r="M136" s="11">
         <v>10192</v>
       </c>
-      <c r="I136" s="11">
+      <c r="N136" s="11">
         <v>6807</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
+        <v>3412</v>
+      </c>
+      <c r="F137" s="9">
+        <v>3335</v>
+      </c>
+      <c r="G137" s="9">
+        <v>-1597</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I137" s="9">
+        <v>3793</v>
+      </c>
+      <c r="J137" s="9">
         <v>9751</v>
       </c>
-      <c r="F137" s="9">
+      <c r="K137" s="9">
         <v>4035</v>
       </c>
-      <c r="G137" s="9">
+      <c r="L137" s="9">
         <v>5732</v>
       </c>
-      <c r="H137" s="9">
+      <c r="M137" s="9">
         <v>6645</v>
       </c>
-      <c r="I137" s="9">
+      <c r="N137" s="9">
         <v>11619</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
+        <v>6847</v>
+      </c>
+      <c r="F138" s="11">
+        <v>10918</v>
+      </c>
+      <c r="G138" s="11">
+        <v>10597</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I138" s="11">
+        <v>26289</v>
+      </c>
+      <c r="J138" s="11">
         <v>51247</v>
       </c>
-      <c r="F138" s="11">
+      <c r="K138" s="11">
         <v>28722</v>
       </c>
-      <c r="G138" s="11">
+      <c r="L138" s="11">
         <v>33808</v>
       </c>
-      <c r="H138" s="11">
+      <c r="M138" s="11">
         <v>31650</v>
       </c>
-      <c r="I138" s="11">
+      <c r="N138" s="11">
         <v>36343</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D139" s="9"/>
-      <c r="E139" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="9" t="s">
-        <v>10</v>
+      <c r="E139" s="9">
+        <v>27870</v>
+      </c>
+      <c r="F139" s="9">
+        <v>36197</v>
+      </c>
+      <c r="G139" s="9">
+        <v>61157</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K139" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L139" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M139" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N139" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G140" s="11">
+        <v>0</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J140" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K140" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L140" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M140" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N140" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D141" s="9"/>
-      <c r="E141" s="9">
+      <c r="E141" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" s="9">
+        <v>46</v>
+      </c>
+      <c r="G141" s="9">
+        <v>156</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I141" s="9">
+        <v>201</v>
+      </c>
+      <c r="J141" s="9">
         <v>326</v>
       </c>
-      <c r="F141" s="9">
+      <c r="K141" s="9">
         <v>195</v>
       </c>
-      <c r="G141" s="9">
+      <c r="L141" s="9">
         <v>111</v>
       </c>
-      <c r="H141" s="9">
+      <c r="M141" s="9">
         <v>347</v>
       </c>
-      <c r="I141" s="9">
+      <c r="N141" s="9">
         <v>443</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
       <c r="E142" s="13">
+        <v>54060</v>
+      </c>
+      <c r="F142" s="13">
+        <v>103052</v>
+      </c>
+      <c r="G142" s="13">
+        <v>64394</v>
+      </c>
+      <c r="H142" s="13">
+        <v>0</v>
+      </c>
+      <c r="I142" s="13">
+        <v>286389</v>
+      </c>
+      <c r="J142" s="13">
         <v>445617</v>
       </c>
-      <c r="F142" s="13">
+      <c r="K142" s="13">
         <v>201986</v>
       </c>
-      <c r="G142" s="13">
+      <c r="L142" s="13">
         <v>173612</v>
       </c>
-      <c r="H142" s="13">
+      <c r="M142" s="13">
         <v>180471</v>
       </c>
-      <c r="I142" s="13">
+      <c r="N142" s="13">
         <v>176410</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3584,8 +5372,13 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3594,8 +5387,13 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3604,10 +5402,15 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-    </row>
-    <row r="146" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B146" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -3615,19 +5418,34 @@
         <v>4</v>
       </c>
       <c r="F146" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G146" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G146" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="H146" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I146" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I146" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J146" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K146" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L146" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M146" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N146" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3636,294 +5454,479 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G148" s="9">
+        <v>0</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K148" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L148" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M148" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N148" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D149" s="11"/>
-      <c r="E149" s="11" t="s">
-        <v>10</v>
+      <c r="E149" s="11">
+        <v>0</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J149" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K149" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L149" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M149" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N149" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="F150" s="9">
+        <v>0</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K150" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L150" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M150" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N150" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D151" s="11"/>
-      <c r="E151" s="11">
+      <c r="E151" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I151" s="11">
+        <v>18132</v>
+      </c>
+      <c r="J151" s="11">
         <v>23245</v>
       </c>
-      <c r="F151" s="11">
+      <c r="K151" s="11">
         <v>10176</v>
       </c>
-      <c r="G151" s="11">
+      <c r="L151" s="11">
         <v>7023</v>
       </c>
-      <c r="H151" s="11">
+      <c r="M151" s="11">
         <v>8854</v>
       </c>
-      <c r="I151" s="11">
+      <c r="N151" s="11">
         <v>1188</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9">
+        <v>8904</v>
+      </c>
+      <c r="F152" s="9">
+        <v>3828</v>
+      </c>
+      <c r="G152" s="9">
+        <v>4774</v>
+      </c>
+      <c r="H152" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I152" s="9">
+        <v>3591</v>
+      </c>
+      <c r="J152" s="9">
         <v>1312</v>
       </c>
-      <c r="F152" s="9">
+      <c r="K152" s="9">
         <v>1070</v>
       </c>
-      <c r="G152" s="9">
+      <c r="L152" s="9">
         <v>1886</v>
       </c>
-      <c r="H152" s="9">
+      <c r="M152" s="9">
         <v>17556</v>
       </c>
-      <c r="I152" s="9">
+      <c r="N152" s="9">
         <v>12867</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C153" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="D153" s="11"/>
       <c r="E153" s="11">
+        <v>2438</v>
+      </c>
+      <c r="F153" s="11">
+        <v>5710</v>
+      </c>
+      <c r="G153" s="11">
+        <v>12170</v>
+      </c>
+      <c r="H153" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I153" s="11">
+        <v>8019</v>
+      </c>
+      <c r="J153" s="11">
         <v>292</v>
       </c>
-      <c r="F153" s="11">
+      <c r="K153" s="11">
         <v>7541</v>
       </c>
-      <c r="G153" s="11">
+      <c r="L153" s="11">
         <v>2161</v>
       </c>
-      <c r="H153" s="11">
+      <c r="M153" s="11">
         <v>440</v>
       </c>
-      <c r="I153" s="11">
+      <c r="N153" s="11">
         <v>756</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9">
+        <v>576</v>
+      </c>
+      <c r="F154" s="9">
+        <v>484</v>
+      </c>
+      <c r="G154" s="9">
+        <v>634</v>
+      </c>
+      <c r="H154" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I154" s="9">
+        <v>620</v>
+      </c>
+      <c r="J154" s="9">
         <v>868</v>
       </c>
-      <c r="F154" s="9">
+      <c r="K154" s="9">
         <v>418</v>
       </c>
-      <c r="G154" s="9">
+      <c r="L154" s="9">
         <v>351</v>
       </c>
-      <c r="H154" s="9">
+      <c r="M154" s="9">
         <v>363</v>
       </c>
-      <c r="I154" s="9">
+      <c r="N154" s="9">
         <v>1596</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="11">
+        <v>1799</v>
+      </c>
+      <c r="F155" s="11">
+        <v>1034</v>
+      </c>
+      <c r="G155" s="11">
+        <v>25207</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I155" s="11">
+        <v>5257</v>
+      </c>
+      <c r="J155" s="11">
         <v>5557</v>
       </c>
-      <c r="F155" s="11">
+      <c r="K155" s="11">
         <v>8628</v>
       </c>
-      <c r="G155" s="11">
+      <c r="L155" s="11">
         <v>6512</v>
       </c>
-      <c r="H155" s="11">
+      <c r="M155" s="11">
         <v>4890</v>
       </c>
-      <c r="I155" s="11">
+      <c r="N155" s="11">
         <v>3943</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D156" s="9"/>
-      <c r="E156" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="9" t="s">
-        <v>10</v>
+      <c r="E156" s="9">
+        <v>3254</v>
+      </c>
+      <c r="F156" s="9">
+        <v>3634</v>
+      </c>
+      <c r="G156" s="9">
+        <v>10441</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I156" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J156" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K156" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L156" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M156" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N156" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D157" s="11"/>
       <c r="E157" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G157" s="11">
+        <v>0</v>
       </c>
       <c r="H157" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J157" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K157" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L157" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M157" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N157" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D158" s="9"/>
-      <c r="E158" s="9">
+      <c r="E158" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F158" s="9">
+        <v>47</v>
+      </c>
+      <c r="G158" s="9">
+        <v>232</v>
+      </c>
+      <c r="H158" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I158" s="9">
+        <v>274</v>
+      </c>
+      <c r="J158" s="9">
         <v>195</v>
       </c>
-      <c r="F158" s="9">
-        <v>0</v>
-      </c>
-      <c r="G158" s="9">
+      <c r="K158" s="9">
+        <v>0</v>
+      </c>
+      <c r="L158" s="9">
         <v>363</v>
       </c>
-      <c r="H158" s="9">
+      <c r="M158" s="9">
         <v>466</v>
       </c>
-      <c r="I158" s="9">
+      <c r="N158" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
       <c r="E159" s="13">
+        <v>16971</v>
+      </c>
+      <c r="F159" s="13">
+        <v>14737</v>
+      </c>
+      <c r="G159" s="13">
+        <v>53458</v>
+      </c>
+      <c r="H159" s="13">
+        <v>0</v>
+      </c>
+      <c r="I159" s="13">
+        <v>35893</v>
+      </c>
+      <c r="J159" s="13">
         <v>31469</v>
       </c>
-      <c r="F159" s="13">
+      <c r="K159" s="13">
         <v>27833</v>
       </c>
-      <c r="G159" s="13">
+      <c r="L159" s="13">
         <v>18296</v>
       </c>
-      <c r="H159" s="13">
+      <c r="M159" s="13">
         <v>32569</v>
       </c>
-      <c r="I159" s="13">
+      <c r="N159" s="13">
         <v>20373</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3932,8 +5935,13 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3942,8 +5950,13 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3952,10 +5965,15 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -3963,19 +5981,34 @@
         <v>4</v>
       </c>
       <c r="F163" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G163" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G163" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="H163" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I163" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I163" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J163" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K163" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M163" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N163" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3984,176 +6017,286 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F165" s="9">
+        <v>15</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J165" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K165" s="9">
         <v>291924051</v>
       </c>
-      <c r="G165" s="9">
+      <c r="L165" s="9">
         <v>185018182</v>
       </c>
-      <c r="H165" s="9">
+      <c r="M165" s="9">
         <v>167214286</v>
       </c>
-      <c r="I165" s="9">
+      <c r="N165" s="9">
         <v>140539683</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D166" s="11"/>
-      <c r="E166" s="11" t="s">
-        <v>10</v>
+      <c r="E166" s="11">
+        <v>55038674</v>
       </c>
       <c r="F166" s="11">
+        <v>56265625</v>
+      </c>
+      <c r="G166" s="11">
+        <v>55304348</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I166" s="11">
+        <v>57134328</v>
+      </c>
+      <c r="J166" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K166" s="11">
         <v>62428571</v>
       </c>
-      <c r="G166" s="11">
+      <c r="L166" s="11">
         <v>89166667</v>
       </c>
-      <c r="H166" s="11">
+      <c r="M166" s="11">
         <v>99263158</v>
       </c>
-      <c r="I166" s="11">
+      <c r="N166" s="11">
         <v>337615385</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D167" s="9"/>
-      <c r="E167" s="9" t="s">
-        <v>10</v>
+      <c r="E167" s="9">
+        <v>34452830</v>
       </c>
       <c r="F167" s="9">
+        <v>47653846</v>
+      </c>
+      <c r="G167" s="9">
+        <v>42771930</v>
+      </c>
+      <c r="H167" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I167" s="9">
+        <v>87846154</v>
+      </c>
+      <c r="J167" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K167" s="9">
         <v>146000000</v>
       </c>
-      <c r="G167" s="9">
+      <c r="L167" s="9">
         <v>121629032</v>
       </c>
-      <c r="H167" s="9">
+      <c r="M167" s="9">
         <v>135062500</v>
       </c>
-      <c r="I167" s="9">
+      <c r="N167" s="9">
         <v>220000000</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D168" s="11"/>
-      <c r="E168" s="11" t="s">
-        <v>10</v>
+      <c r="E168" s="11">
+        <v>5336364</v>
       </c>
       <c r="F168" s="11">
+        <v>6050000</v>
+      </c>
+      <c r="G168" s="11">
+        <v>5538462</v>
+      </c>
+      <c r="H168" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I168" s="11">
+        <v>6050000</v>
+      </c>
+      <c r="J168" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K168" s="11">
         <v>7954128</v>
       </c>
-      <c r="G168" s="11">
+      <c r="L168" s="11">
         <v>8038462</v>
       </c>
-      <c r="H168" s="11">
+      <c r="M168" s="11">
         <v>9236842</v>
       </c>
-      <c r="I168" s="11">
+      <c r="N168" s="11">
         <v>9075000</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D169" s="9"/>
-      <c r="E169" s="9" t="s">
-        <v>10</v>
+      <c r="E169" s="9">
+        <v>600146</v>
       </c>
       <c r="F169" s="9">
+        <v>388866</v>
+      </c>
+      <c r="G169" s="9">
+        <v>600067</v>
+      </c>
+      <c r="H169" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I169" s="9">
+        <v>1253333</v>
+      </c>
+      <c r="J169" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K169" s="9">
         <v>1850483</v>
       </c>
-      <c r="G169" s="9">
+      <c r="L169" s="9">
         <v>2600362</v>
       </c>
-      <c r="H169" s="9">
+      <c r="M169" s="9">
         <v>2600639</v>
       </c>
-      <c r="I169" s="9">
+      <c r="N169" s="9">
         <v>2601064</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D170" s="11"/>
-      <c r="E170" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F170" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="11" t="s">
-        <v>10</v>
+      <c r="E170" s="11">
+        <v>43484375</v>
+      </c>
+      <c r="F170" s="11">
+        <v>59000000</v>
+      </c>
+      <c r="G170" s="11">
+        <v>50061538</v>
       </c>
       <c r="H170" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J170" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K170" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L170" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M170" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N170" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F171" s="9">
+        <v>46500000</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I171" s="9">
+        <v>47000000</v>
+      </c>
+      <c r="J171" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K171" s="9">
         <v>195000000</v>
       </c>
-      <c r="G171" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H171" s="9">
+      <c r="L171" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M171" s="9">
         <v>363000000</v>
       </c>
-      <c r="I171" s="9">
+      <c r="N171" s="9">
         <v>233000000</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -4162,8 +6305,13 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -4172,8 +6320,13 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4182,10 +6335,15 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+    </row>
+    <row r="175" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
@@ -4193,19 +6351,34 @@
         <v>4</v>
       </c>
       <c r="F175" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G175" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G175" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="H175" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I175" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I175" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J175" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K175" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L175" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M175" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N175" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4214,224 +6387,364 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I177" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J177" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K177" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L177" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M177" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N177" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F178" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="F178" s="11">
+        <v>13576596</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H178" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J178" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K178" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L178" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M178" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N178" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D179" s="9"/>
-      <c r="E179" s="9">
+      <c r="E179" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G179" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H179" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I179" s="9">
+        <v>201444271</v>
+      </c>
+      <c r="J179" s="9">
         <v>210662770</v>
       </c>
-      <c r="F179" s="9">
+      <c r="K179" s="9">
         <v>216291159</v>
       </c>
-      <c r="G179" s="9">
+      <c r="L179" s="9">
         <v>149559585</v>
       </c>
-      <c r="H179" s="9">
+      <c r="M179" s="9">
         <v>170648571</v>
       </c>
-      <c r="I179" s="9">
+      <c r="N179" s="9">
         <v>115138973</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11">
+        <v>55377049</v>
+      </c>
+      <c r="F180" s="11">
+        <v>57321918</v>
+      </c>
+      <c r="G180" s="11">
+        <v>52385135</v>
+      </c>
+      <c r="H180" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I180" s="11">
+        <v>96764706</v>
+      </c>
+      <c r="J180" s="11">
         <v>61764103</v>
       </c>
-      <c r="F180" s="11">
+      <c r="K180" s="11">
         <v>80426230</v>
       </c>
-      <c r="G180" s="11">
+      <c r="L180" s="11">
         <v>93735849</v>
       </c>
-      <c r="H180" s="11">
+      <c r="M180" s="11">
         <v>272330275</v>
       </c>
-      <c r="I180" s="11">
+      <c r="N180" s="11">
         <v>274126050</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9">
+        <v>45779221</v>
+      </c>
+      <c r="F181" s="9">
+        <v>87476636</v>
+      </c>
+      <c r="G181" s="9">
+        <v>-197580247</v>
+      </c>
+      <c r="H181" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I181" s="9">
+        <v>74897059</v>
+      </c>
+      <c r="J181" s="9">
         <v>113048780</v>
       </c>
-      <c r="F181" s="9">
+      <c r="K181" s="9">
         <v>119343750</v>
       </c>
-      <c r="G181" s="9">
+      <c r="L181" s="9">
         <v>129244444</v>
       </c>
-      <c r="H181" s="9">
+      <c r="M181" s="9">
         <v>136629032</v>
       </c>
-      <c r="I181" s="9">
+      <c r="N181" s="9">
         <v>113063492</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="11">
+        <v>5281056</v>
+      </c>
+      <c r="F182" s="11">
+        <v>5549085</v>
+      </c>
+      <c r="G182" s="11">
+        <v>3300000</v>
+      </c>
+      <c r="H182" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I182" s="11">
+        <v>8687356</v>
+      </c>
+      <c r="J182" s="11">
         <v>6981818</v>
       </c>
-      <c r="F182" s="11">
+      <c r="K182" s="11">
         <v>6896154</v>
       </c>
-      <c r="G182" s="11">
+      <c r="L182" s="11">
         <v>9973592</v>
       </c>
-      <c r="H182" s="11">
+      <c r="M182" s="11">
         <v>12396648</v>
       </c>
-      <c r="I182" s="11">
+      <c r="N182" s="11">
         <v>13127681</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9">
+        <v>599966</v>
+      </c>
+      <c r="F183" s="9">
+        <v>1199956</v>
+      </c>
+      <c r="G183" s="9">
+        <v>-1810166</v>
+      </c>
+      <c r="H183" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I183" s="9">
+        <v>2003442</v>
+      </c>
+      <c r="J183" s="9">
         <v>1726380</v>
       </c>
-      <c r="F183" s="9">
+      <c r="K183" s="9">
         <v>2600016</v>
       </c>
-      <c r="G183" s="9">
+      <c r="L183" s="9">
         <v>2600049</v>
       </c>
-      <c r="H183" s="9">
+      <c r="M183" s="9">
         <v>2600052</v>
       </c>
-      <c r="I183" s="9">
+      <c r="N183" s="9">
         <v>2599971</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D184" s="11"/>
-      <c r="E184" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F184" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="11" t="s">
-        <v>10</v>
+      <c r="E184" s="11">
+        <v>48777969</v>
+      </c>
+      <c r="F184" s="11">
+        <v>64669919</v>
+      </c>
+      <c r="G184" s="11">
+        <v>-387202128</v>
       </c>
       <c r="H184" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J184" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K184" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L184" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M184" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N184" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D185" s="9"/>
-      <c r="E185" s="9">
+      <c r="E185" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G185" s="9">
+        <v>148000000</v>
+      </c>
+      <c r="H185" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I185" s="9">
         <v>144500000</v>
       </c>
-      <c r="F185" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="9">
+      <c r="J185" s="9">
+        <v>144500000</v>
+      </c>
+      <c r="K185" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L185" s="9">
         <v>237000000</v>
       </c>
-      <c r="H185" s="9">
+      <c r="M185" s="9">
         <v>225000000</v>
       </c>
-      <c r="I185" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N185" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -4440,8 +6753,13 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -4450,8 +6768,13 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4460,10 +6783,15 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
-    </row>
-    <row r="189" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+    </row>
+    <row r="189" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B189" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
@@ -4471,19 +6799,34 @@
         <v>4</v>
       </c>
       <c r="F189" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G189" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G189" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="H189" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I189" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I189" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J189" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K189" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L189" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M189" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N189" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -4492,224 +6835,364 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H191" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I191" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J191" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K191" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L191" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M191" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N191" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D192" s="11"/>
       <c r="E192" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F192" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="F192" s="11">
+        <v>13576596</v>
       </c>
       <c r="G192" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H192" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J192" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K192" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L192" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M192" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N192" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D193" s="9"/>
-      <c r="E193" s="9">
+      <c r="E193" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G193" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H193" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I193" s="9">
+        <v>200770216</v>
+      </c>
+      <c r="J193" s="9">
         <v>205097345</v>
       </c>
-      <c r="F193" s="9">
+      <c r="K193" s="9">
         <v>227607353</v>
       </c>
-      <c r="G193" s="9">
+      <c r="L193" s="9">
         <v>151099363</v>
       </c>
-      <c r="H193" s="9">
+      <c r="M193" s="9">
         <v>173229750</v>
       </c>
-      <c r="I193" s="9">
+      <c r="N193" s="9">
         <v>117490196</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D194" s="11"/>
       <c r="E194" s="11">
+        <v>55133005</v>
+      </c>
+      <c r="F194" s="11">
+        <v>56937063</v>
+      </c>
+      <c r="G194" s="11">
+        <v>50792157</v>
+      </c>
+      <c r="H194" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I194" s="11">
+        <v>72714286</v>
+      </c>
+      <c r="J194" s="11">
         <v>61043307</v>
       </c>
-      <c r="F194" s="11">
+      <c r="K194" s="11">
         <v>76740458</v>
       </c>
-      <c r="G194" s="11">
+      <c r="L194" s="11">
         <v>90260870</v>
       </c>
-      <c r="H194" s="11">
+      <c r="M194" s="11">
         <v>184394737</v>
       </c>
-      <c r="I194" s="11">
+      <c r="N194" s="11">
         <v>313529412</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="9">
+        <v>37611111</v>
+      </c>
+      <c r="F195" s="9">
+        <v>65191489</v>
+      </c>
+      <c r="G195" s="9">
+        <v>-48503448</v>
+      </c>
+      <c r="H195" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I195" s="9">
+        <v>-176153846</v>
+      </c>
+      <c r="J195" s="9">
         <v>106808081</v>
       </c>
-      <c r="F195" s="9">
+      <c r="K195" s="9">
         <v>116888889</v>
       </c>
-      <c r="G195" s="9">
+      <c r="L195" s="9">
         <v>123032967</v>
       </c>
-      <c r="H195" s="9">
+      <c r="M195" s="9">
         <v>134105263</v>
       </c>
-      <c r="I195" s="9">
+      <c r="N195" s="9">
         <v>117362069</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D196" s="11"/>
       <c r="E196" s="11">
+        <v>5249231</v>
+      </c>
+      <c r="F196" s="11">
+        <v>5549085</v>
+      </c>
+      <c r="G196" s="11">
+        <v>3219758</v>
+      </c>
+      <c r="H196" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I196" s="11">
+        <v>8447661</v>
+      </c>
+      <c r="J196" s="11">
         <v>6838008</v>
       </c>
-      <c r="F196" s="11">
+      <c r="K196" s="11">
         <v>6993068</v>
       </c>
-      <c r="G196" s="11">
+      <c r="L196" s="11">
         <v>9848797</v>
       </c>
-      <c r="H196" s="11">
+      <c r="M196" s="11">
         <v>12420561</v>
       </c>
-      <c r="I196" s="11">
+      <c r="N196" s="11">
         <v>12547516</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9">
+        <v>599930</v>
+      </c>
+      <c r="F197" s="9">
+        <v>1009897</v>
+      </c>
+      <c r="G197" s="9">
+        <v>-1692271</v>
+      </c>
+      <c r="H197" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I197" s="9">
+        <v>2143766</v>
+      </c>
+      <c r="J197" s="9">
         <v>1671243</v>
       </c>
-      <c r="F197" s="9">
+      <c r="K197" s="9">
         <v>2410980</v>
       </c>
-      <c r="G197" s="9">
+      <c r="L197" s="9">
         <v>2600015</v>
       </c>
-      <c r="H197" s="9">
+      <c r="M197" s="9">
         <v>2600016</v>
       </c>
-      <c r="I197" s="9">
+      <c r="N197" s="9">
         <v>2599828</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D198" s="11"/>
-      <c r="E198" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F198" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="11" t="s">
-        <v>10</v>
+      <c r="E198" s="11">
+        <v>48051724</v>
+      </c>
+      <c r="F198" s="11">
+        <v>63952297</v>
+      </c>
+      <c r="G198" s="11">
+        <v>-229913534</v>
       </c>
       <c r="H198" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J198" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K198" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L198" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M198" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N198" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D199" s="9"/>
-      <c r="E199" s="9">
+      <c r="E199" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F199" s="9">
+        <v>46000000</v>
+      </c>
+      <c r="G199" s="9">
+        <v>78000000</v>
+      </c>
+      <c r="H199" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I199" s="9">
+        <v>201000000</v>
+      </c>
+      <c r="J199" s="9">
         <v>163000000</v>
       </c>
-      <c r="F199" s="9">
+      <c r="K199" s="9">
         <v>195000000</v>
       </c>
-      <c r="G199" s="9">
+      <c r="L199" s="9">
         <v>111000000</v>
       </c>
-      <c r="H199" s="9">
+      <c r="M199" s="9">
         <v>347000000</v>
       </c>
-      <c r="I199" s="9">
+      <c r="N199" s="9">
         <v>221500000</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -4718,8 +7201,13 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -4728,8 +7216,13 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -4738,10 +7231,15 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
-    </row>
-    <row r="203" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+    </row>
+    <row r="203" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B203" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
@@ -4749,19 +7247,34 @@
         <v>4</v>
       </c>
       <c r="F203" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G203" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G203" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="H203" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I203" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I203" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J203" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K203" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L203" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M203" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N203" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -4770,176 +7283,286 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D205" s="9"/>
-      <c r="E205" s="9">
+      <c r="E205" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F205" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G205" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H205" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I205" s="9">
+        <v>186927835</v>
+      </c>
+      <c r="J205" s="9">
         <v>294240506</v>
       </c>
-      <c r="F205" s="9">
+      <c r="K205" s="9">
         <v>185018182</v>
       </c>
-      <c r="G205" s="9">
+      <c r="L205" s="9">
         <v>167214286</v>
       </c>
-      <c r="H205" s="9">
+      <c r="M205" s="9">
         <v>140539683</v>
       </c>
-      <c r="I205" s="9">
+      <c r="N205" s="9">
         <v>108000000</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206" s="10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D206" s="11"/>
-      <c r="E206" s="11">
+      <c r="E206" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F206" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G206" s="11">
+        <v>59675000</v>
+      </c>
+      <c r="H206" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I206" s="11">
+        <v>61913793</v>
+      </c>
+      <c r="J206" s="11">
         <v>62476190</v>
       </c>
-      <c r="F206" s="11">
+      <c r="K206" s="11">
         <v>89166667</v>
       </c>
-      <c r="G206" s="11">
+      <c r="L206" s="11">
         <v>99263158</v>
       </c>
-      <c r="H206" s="11">
+      <c r="M206" s="11">
         <v>337615385</v>
       </c>
-      <c r="I206" s="11">
+      <c r="N206" s="11">
         <v>247442308</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D207" s="9"/>
-      <c r="E207" s="9">
+      <c r="E207" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F207" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G207" s="9">
+        <v>103135593</v>
+      </c>
+      <c r="H207" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I207" s="9">
+        <v>105513158</v>
+      </c>
+      <c r="J207" s="9">
         <v>146000000</v>
       </c>
-      <c r="F207" s="9">
+      <c r="K207" s="9">
         <v>121629032</v>
       </c>
-      <c r="G207" s="9">
+      <c r="L207" s="9">
         <v>135062500</v>
       </c>
-      <c r="H207" s="9">
+      <c r="M207" s="9">
         <v>220000000</v>
       </c>
-      <c r="I207" s="9">
+      <c r="N207" s="9">
         <v>108000000</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" s="10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D208" s="11"/>
-      <c r="E208" s="11">
+      <c r="E208" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F208" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G208" s="11">
+        <v>6096154</v>
+      </c>
+      <c r="H208" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I208" s="11">
+        <v>6888889</v>
+      </c>
+      <c r="J208" s="11">
         <v>8037037</v>
       </c>
-      <c r="F208" s="11">
+      <c r="K208" s="11">
         <v>8038462</v>
       </c>
-      <c r="G208" s="11">
+      <c r="L208" s="11">
         <v>9236842</v>
       </c>
-      <c r="H208" s="11">
+      <c r="M208" s="11">
         <v>9075000</v>
       </c>
-      <c r="I208" s="11">
+      <c r="N208" s="11">
         <v>17161290</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B209" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C209" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C209" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="D209" s="9"/>
-      <c r="E209" s="9">
+      <c r="E209" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F209" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G209" s="9">
+        <v>810853</v>
+      </c>
+      <c r="H209" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I209" s="9">
+        <v>1850405</v>
+      </c>
+      <c r="J209" s="9">
         <v>1849867</v>
       </c>
-      <c r="F209" s="9">
+      <c r="K209" s="9">
         <v>2600362</v>
       </c>
-      <c r="G209" s="9">
+      <c r="L209" s="9">
         <v>2600639</v>
       </c>
-      <c r="H209" s="9">
+      <c r="M209" s="9">
         <v>2601064</v>
       </c>
-      <c r="I209" s="9">
+      <c r="N209" s="9">
         <v>2602640</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B210" s="10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D210" s="11"/>
       <c r="E210" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F210" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G210" s="11">
+        <v>165730159</v>
       </c>
       <c r="H210" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J210" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K210" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L210" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M210" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N210" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B211" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D211" s="9"/>
-      <c r="E211" s="9">
+      <c r="E211" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F211" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G211" s="9">
+        <v>232000000</v>
+      </c>
+      <c r="H211" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I211" s="9">
+        <v>137000000</v>
+      </c>
+      <c r="J211" s="9">
         <v>97500000</v>
       </c>
-      <c r="F211" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" s="9">
+      <c r="K211" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L211" s="9">
         <v>363000000</v>
       </c>
-      <c r="H211" s="9">
+      <c r="M211" s="9">
         <v>233000000</v>
       </c>
-      <c r="I211" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N211" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -4948,8 +7571,13 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+    </row>
+    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -4958,8 +7586,13 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+    </row>
+    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -4968,10 +7601,15 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
-    </row>
-    <row r="215" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+    </row>
+    <row r="215" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B215" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
@@ -4979,19 +7617,34 @@
         <v>4</v>
       </c>
       <c r="F215" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G215" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G215" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="H215" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I215" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I215" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J215" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K215" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L215" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M215" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N215" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -5000,37 +7653,57 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+    </row>
+    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B217" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
-      <c r="E217" s="9" t="s">
-        <v>10</v>
+      <c r="E217" s="9">
+        <v>9557</v>
       </c>
       <c r="F217" s="9">
+        <v>17862</v>
+      </c>
+      <c r="G217" s="9">
+        <v>15185</v>
+      </c>
+      <c r="H217" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I217" s="9">
+        <v>27738</v>
+      </c>
+      <c r="J217" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K217" s="9">
         <v>17060</v>
       </c>
-      <c r="G217" s="9">
+      <c r="L217" s="9">
         <v>30037</v>
       </c>
-      <c r="H217" s="9">
+      <c r="M217" s="9">
         <v>40450</v>
       </c>
-      <c r="I217" s="9">
+      <c r="N217" s="9">
         <v>67987</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B218" s="10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
-      <c r="E218" s="11" t="s">
-        <v>10</v>
+      <c r="E218" s="11">
+        <v>0</v>
       </c>
       <c r="F218" s="11">
         <v>0</v>
@@ -5038,21 +7711,36 @@
       <c r="G218" s="11">
         <v>0</v>
       </c>
-      <c r="H218" s="11">
-        <v>0</v>
+      <c r="H218" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I218" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J218" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K218" s="11">
+        <v>0</v>
+      </c>
+      <c r="L218" s="11">
+        <v>0</v>
+      </c>
+      <c r="M218" s="11">
+        <v>0</v>
+      </c>
+      <c r="N218" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B219" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
-      <c r="E219" s="9" t="s">
-        <v>10</v>
+      <c r="E219" s="9">
+        <v>0</v>
       </c>
       <c r="F219" s="9">
         <v>0</v>
@@ -5060,21 +7748,36 @@
       <c r="G219" s="9">
         <v>0</v>
       </c>
-      <c r="H219" s="9">
-        <v>0</v>
+      <c r="H219" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I219" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J219" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K219" s="9">
+        <v>0</v>
+      </c>
+      <c r="L219" s="9">
+        <v>0</v>
+      </c>
+      <c r="M219" s="9">
+        <v>0</v>
+      </c>
+      <c r="N219" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B220" s="10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
-      <c r="E220" s="11" t="s">
-        <v>10</v>
+      <c r="E220" s="11">
+        <v>0</v>
       </c>
       <c r="F220" s="11">
         <v>0</v>
@@ -5082,109 +7785,184 @@
       <c r="G220" s="11">
         <v>0</v>
       </c>
-      <c r="H220" s="11">
-        <v>0</v>
+      <c r="H220" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I220" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J220" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K220" s="11">
+        <v>0</v>
+      </c>
+      <c r="L220" s="11">
+        <v>0</v>
+      </c>
+      <c r="M220" s="11">
+        <v>0</v>
+      </c>
+      <c r="N220" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B221" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
-      <c r="E221" s="9" t="s">
-        <v>10</v>
+      <c r="E221" s="9">
+        <v>97316</v>
       </c>
       <c r="F221" s="9">
-        <v>0</v>
+        <v>72734</v>
       </c>
       <c r="G221" s="9">
+        <v>-55907</v>
+      </c>
+      <c r="H221" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I221" s="9">
+        <v>-57667</v>
+      </c>
+      <c r="J221" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K221" s="9">
+        <v>0</v>
+      </c>
+      <c r="L221" s="9">
         <v>20351</v>
       </c>
-      <c r="H221" s="9">
+      <c r="M221" s="9">
         <v>157738</v>
       </c>
-      <c r="I221" s="9">
+      <c r="N221" s="9">
         <v>300136</v>
       </c>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B222" s="10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
-      <c r="E222" s="11" t="s">
-        <v>10</v>
+      <c r="E222" s="11">
+        <v>16056</v>
       </c>
       <c r="F222" s="11">
+        <v>3226</v>
+      </c>
+      <c r="G222" s="11">
+        <v>10018</v>
+      </c>
+      <c r="H222" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I222" s="11">
+        <v>81801</v>
+      </c>
+      <c r="J222" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K222" s="11">
         <v>24864</v>
       </c>
-      <c r="G222" s="11">
+      <c r="L222" s="11">
         <v>70024</v>
       </c>
-      <c r="H222" s="11">
+      <c r="M222" s="11">
         <v>59402</v>
       </c>
-      <c r="I222" s="11">
+      <c r="N222" s="11">
         <v>66272</v>
       </c>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B223" s="8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
-      <c r="E223" s="9" t="s">
-        <v>10</v>
+      <c r="E223" s="9">
+        <v>33327</v>
       </c>
       <c r="F223" s="9">
+        <v>33222</v>
+      </c>
+      <c r="G223" s="9">
+        <v>-15030</v>
+      </c>
+      <c r="H223" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I223" s="9">
+        <v>50376</v>
+      </c>
+      <c r="J223" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K223" s="9">
         <v>44344</v>
       </c>
-      <c r="G223" s="9">
+      <c r="L223" s="9">
         <v>45568</v>
       </c>
-      <c r="H223" s="9">
+      <c r="M223" s="9">
         <v>48995</v>
       </c>
-      <c r="I223" s="9">
+      <c r="N223" s="9">
         <v>50190</v>
       </c>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B224" s="10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
-      <c r="E224" s="11" t="s">
-        <v>10</v>
+      <c r="E224" s="11">
+        <v>40641</v>
       </c>
       <c r="F224" s="11">
+        <v>38893</v>
+      </c>
+      <c r="G224" s="11">
+        <v>-370</v>
+      </c>
+      <c r="H224" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I224" s="11">
+        <v>146527</v>
+      </c>
+      <c r="J224" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K224" s="11">
         <v>87583</v>
       </c>
-      <c r="G224" s="11">
+      <c r="L224" s="11">
         <v>173210</v>
       </c>
-      <c r="H224" s="11">
+      <c r="M224" s="11">
         <v>140299</v>
       </c>
-      <c r="I224" s="11">
+      <c r="N224" s="11">
         <v>148481</v>
       </c>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B225" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
-      <c r="E225" s="9" t="s">
-        <v>10</v>
+      <c r="E225" s="9">
+        <v>0</v>
       </c>
       <c r="F225" s="9">
         <v>0</v>
@@ -5192,58 +7970,103 @@
       <c r="G225" s="9">
         <v>0</v>
       </c>
-      <c r="H225" s="9">
-        <v>0</v>
+      <c r="H225" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I225" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J225" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K225" s="9">
+        <v>0</v>
+      </c>
+      <c r="L225" s="9">
+        <v>0</v>
+      </c>
+      <c r="M225" s="9">
+        <v>0</v>
+      </c>
+      <c r="N225" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B226" s="10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C226" s="11"/>
       <c r="D226" s="11"/>
-      <c r="E226" s="11" t="s">
-        <v>10</v>
+      <c r="E226" s="11">
+        <v>-16189</v>
       </c>
       <c r="F226" s="11">
+        <v>52842</v>
+      </c>
+      <c r="G226" s="11">
+        <v>178154</v>
+      </c>
+      <c r="H226" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I226" s="11">
+        <v>172680</v>
+      </c>
+      <c r="J226" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K226" s="11">
         <v>198763</v>
       </c>
-      <c r="G226" s="11">
+      <c r="L226" s="11">
         <v>83545</v>
       </c>
-      <c r="H226" s="11">
+      <c r="M226" s="11">
         <v>49228</v>
       </c>
-      <c r="I226" s="11">
+      <c r="N226" s="11">
         <v>-145353</v>
       </c>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B227" s="14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C227" s="15"/>
       <c r="D227" s="15"/>
       <c r="E227" s="15">
-        <v>0</v>
+        <v>180708</v>
       </c>
       <c r="F227" s="15">
+        <v>218779</v>
+      </c>
+      <c r="G227" s="15">
+        <v>132050</v>
+      </c>
+      <c r="H227" s="15">
+        <v>0</v>
+      </c>
+      <c r="I227" s="15">
+        <v>421455</v>
+      </c>
+      <c r="J227" s="15">
+        <v>0</v>
+      </c>
+      <c r="K227" s="15">
         <v>372614</v>
       </c>
-      <c r="G227" s="15">
+      <c r="L227" s="15">
         <v>422735</v>
       </c>
-      <c r="H227" s="15">
+      <c r="M227" s="15">
         <v>496112</v>
       </c>
-      <c r="I227" s="15">
+      <c r="N227" s="15">
         <v>487713</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -5252,8 +8075,13 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
-    </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
+    </row>
+    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -5262,8 +8090,13 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
-    </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+    </row>
+    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -5272,10 +8105,15 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
-    </row>
-    <row r="231" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+    </row>
+    <row r="231" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B231" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
@@ -5284,112 +8122,117 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
-    </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+    </row>
+    <row r="233" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B233" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
       <c r="F233" s="9"/>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B234" s="10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D234" s="11"/>
       <c r="E234" s="11"/>
       <c r="F234" s="11"/>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B235" s="8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
       <c r="F235" s="9"/>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B236" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D236" s="11"/>
       <c r="E236" s="11"/>
       <c r="F236" s="11"/>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B237" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B238" s="10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D238" s="11"/>
       <c r="E238" s="11"/>
       <c r="F238" s="11"/>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B239" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
       <c r="F239" s="9"/>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B240" s="10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D240" s="11"/>
       <c r="E240" s="11"/>
       <c r="F240" s="11"/>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241" s="8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D241" s="9"/>
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B242" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D242" s="11"/>
       <c r="E242" s="11"/>

--- a/database/industries/methanol/shekolor/cost/quarterly.xlsx
+++ b/database/industries/methanol/shekolor/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekolor\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekolor\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84349C74-4A07-49E9-9254-806B6E2CC58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC82D0FA-3172-4934-A8F7-2D0E80BC2B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/02</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/12</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل چهارم منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1401/11</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -734,12 +734,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -754,7 +754,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -788,7 +788,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,7 +803,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -820,7 +820,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -837,7 +837,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -852,7 +852,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -889,7 +889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -904,155 +904,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>113719</v>
+        <v>4666</v>
       </c>
       <c r="F10" s="9">
-        <v>4666</v>
+        <v>103052</v>
       </c>
       <c r="G10" s="9">
-        <v>103052</v>
-      </c>
-      <c r="H10" s="9">
         <v>361088</v>
       </c>
+      <c r="H10" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>15</v>
+      <c r="J10" s="9">
+        <v>201986</v>
       </c>
       <c r="K10" s="9">
-        <v>201986</v>
+        <v>173612</v>
       </c>
       <c r="L10" s="9">
-        <v>173612</v>
+        <v>180471</v>
       </c>
       <c r="M10" s="9">
-        <v>180471</v>
+        <v>176375</v>
       </c>
       <c r="N10" s="9">
-        <v>176375</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>123496</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>26959</v>
+        <v>2003</v>
       </c>
       <c r="F11" s="11">
-        <v>2003</v>
+        <v>28620</v>
       </c>
       <c r="G11" s="11">
-        <v>28620</v>
-      </c>
-      <c r="H11" s="11">
         <v>65315</v>
       </c>
+      <c r="H11" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="I11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>15</v>
+      <c r="J11" s="11">
+        <v>38788</v>
       </c>
       <c r="K11" s="11">
-        <v>38788</v>
+        <v>69654</v>
       </c>
       <c r="L11" s="11">
-        <v>69654</v>
+        <v>59721</v>
       </c>
       <c r="M11" s="11">
-        <v>59721</v>
+        <v>60847</v>
       </c>
       <c r="N11" s="11">
-        <v>60847</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>87043</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>180708</v>
+        <v>132050</v>
       </c>
       <c r="F12" s="9">
-        <v>132050</v>
+        <v>218779</v>
       </c>
       <c r="G12" s="9">
-        <v>218779</v>
-      </c>
-      <c r="H12" s="9">
         <v>421455</v>
       </c>
+      <c r="H12" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>15</v>
+      <c r="J12" s="9">
+        <v>372614</v>
       </c>
       <c r="K12" s="9">
-        <v>372614</v>
+        <v>422735</v>
       </c>
       <c r="L12" s="9">
-        <v>422735</v>
+        <v>496112</v>
       </c>
       <c r="M12" s="9">
-        <v>496112</v>
+        <v>487714</v>
       </c>
       <c r="N12" s="9">
-        <v>487714</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>590033</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>321386</v>
+        <v>138719</v>
       </c>
       <c r="F13" s="13">
-        <v>138719</v>
+        <v>350451</v>
       </c>
       <c r="G13" s="13">
-        <v>350451</v>
-      </c>
-      <c r="H13" s="13">
         <v>847858</v>
       </c>
+      <c r="H13" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="I13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="13" t="s">
-        <v>15</v>
+      <c r="J13" s="13">
+        <v>613388</v>
       </c>
       <c r="K13" s="13">
-        <v>613388</v>
+        <v>666001</v>
       </c>
       <c r="L13" s="13">
-        <v>666001</v>
+        <v>736304</v>
       </c>
       <c r="M13" s="13">
-        <v>736304</v>
+        <v>724936</v>
       </c>
       <c r="N13" s="13">
-        <v>724936</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>800572</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
@@ -1067,14 +1067,14 @@
       <c r="G14" s="9">
         <v>0</v>
       </c>
-      <c r="H14" s="9">
-        <v>0</v>
+      <c r="H14" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>15</v>
+      <c r="J14" s="9">
+        <v>0</v>
       </c>
       <c r="K14" s="9">
         <v>0</v>
@@ -1089,81 +1089,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>321386</v>
+        <v>138719</v>
       </c>
       <c r="F15" s="13">
-        <v>138719</v>
+        <v>350451</v>
       </c>
       <c r="G15" s="13">
-        <v>350451</v>
-      </c>
-      <c r="H15" s="13">
         <v>847858</v>
       </c>
+      <c r="H15" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="I15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>15</v>
+      <c r="J15" s="13">
+        <v>613388</v>
       </c>
       <c r="K15" s="13">
-        <v>613388</v>
+        <v>666001</v>
       </c>
       <c r="L15" s="13">
-        <v>666001</v>
+        <v>736304</v>
       </c>
       <c r="M15" s="13">
-        <v>736304</v>
+        <v>724936</v>
       </c>
       <c r="N15" s="13">
-        <v>724936</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>800572</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>17</v>
+        <v>-2507</v>
       </c>
       <c r="F16" s="9">
-        <v>-2507</v>
+        <v>467</v>
       </c>
       <c r="G16" s="9">
-        <v>467</v>
-      </c>
-      <c r="H16" s="9">
         <v>3371</v>
       </c>
+      <c r="H16" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>15</v>
+      <c r="J16" s="9">
+        <v>672</v>
       </c>
       <c r="K16" s="9">
-        <v>672</v>
+        <v>-679</v>
       </c>
       <c r="L16" s="9">
-        <v>-679</v>
+        <v>-550</v>
       </c>
       <c r="M16" s="9">
-        <v>-550</v>
+        <v>982</v>
       </c>
       <c r="N16" s="9">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -1178,14 +1178,14 @@
       <c r="G17" s="11">
         <v>0</v>
       </c>
-      <c r="H17" s="11">
-        <v>0</v>
+      <c r="H17" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>15</v>
+      <c r="J17" s="11">
+        <v>0</v>
       </c>
       <c r="K17" s="11">
         <v>0</v>
@@ -1200,229 +1200,229 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>321403</v>
+        <v>136212</v>
       </c>
       <c r="F18" s="15">
-        <v>136212</v>
+        <v>350918</v>
       </c>
       <c r="G18" s="15">
-        <v>350918</v>
-      </c>
-      <c r="H18" s="15">
         <v>851229</v>
       </c>
+      <c r="H18" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="I18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="15" t="s">
-        <v>15</v>
+      <c r="J18" s="15">
+        <v>614060</v>
       </c>
       <c r="K18" s="15">
-        <v>614060</v>
+        <v>665322</v>
       </c>
       <c r="L18" s="15">
-        <v>665322</v>
+        <v>735754</v>
       </c>
       <c r="M18" s="15">
-        <v>735754</v>
+        <v>725918</v>
       </c>
       <c r="N18" s="15">
-        <v>725918</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>801060</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>76230</v>
       </c>
       <c r="F19" s="11">
-        <v>76230</v>
+        <v>117240</v>
       </c>
       <c r="G19" s="11">
-        <v>117240</v>
-      </c>
-      <c r="H19" s="11">
         <v>-3605</v>
       </c>
+      <c r="H19" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="I19" s="11" t="s">
         <v>15</v>
       </c>
       <c r="J19" s="11">
-        <v>113635</v>
+        <v>118678</v>
       </c>
       <c r="K19" s="11">
-        <v>118678</v>
+        <v>165038</v>
       </c>
       <c r="L19" s="11">
-        <v>165038</v>
+        <v>201413</v>
       </c>
       <c r="M19" s="11">
-        <v>201413</v>
+        <v>216401</v>
       </c>
       <c r="N19" s="11">
-        <v>216401</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>252192</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-21851</v>
+        <v>-36639</v>
       </c>
       <c r="F20" s="9">
-        <v>-36639</v>
+        <v>-128895</v>
       </c>
       <c r="G20" s="9">
-        <v>-128895</v>
-      </c>
-      <c r="H20" s="9">
         <v>-9506</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>15</v>
+      <c r="H20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-118678</v>
       </c>
       <c r="J20" s="9">
-        <v>-118678</v>
+        <v>-165038</v>
       </c>
       <c r="K20" s="9">
-        <v>-165038</v>
+        <v>-201413</v>
       </c>
       <c r="L20" s="9">
-        <v>-201413</v>
+        <v>-216401</v>
       </c>
       <c r="M20" s="9">
-        <v>-216401</v>
+        <v>-252192</v>
       </c>
       <c r="N20" s="9">
-        <v>-252192</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-286356</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>299552</v>
+        <v>175803</v>
       </c>
       <c r="F21" s="13">
-        <v>175803</v>
+        <v>339263</v>
       </c>
       <c r="G21" s="13">
-        <v>339263</v>
-      </c>
-      <c r="H21" s="13">
         <v>838118</v>
       </c>
+      <c r="H21" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="I21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="13" t="s">
-        <v>15</v>
+      <c r="J21" s="13">
+        <v>567700</v>
       </c>
       <c r="K21" s="13">
-        <v>567700</v>
+        <v>628947</v>
       </c>
       <c r="L21" s="13">
-        <v>628947</v>
+        <v>720766</v>
       </c>
       <c r="M21" s="13">
-        <v>720766</v>
+        <v>690127</v>
       </c>
       <c r="N21" s="13">
-        <v>690127</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>766896</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>-33547</v>
+        <v>75123</v>
       </c>
       <c r="F22" s="9">
-        <v>75123</v>
+        <v>0</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
       </c>
-      <c r="H22" s="9">
-        <v>0</v>
+      <c r="H22" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="9" t="s">
-        <v>15</v>
+      <c r="J22" s="9">
+        <v>0</v>
       </c>
       <c r="K22" s="9">
-        <v>0</v>
+        <v>132352</v>
       </c>
       <c r="L22" s="9">
-        <v>132352</v>
+        <v>77437</v>
       </c>
       <c r="M22" s="9">
-        <v>77437</v>
+        <v>163187</v>
       </c>
       <c r="N22" s="9">
-        <v>163187</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>73468</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>266005</v>
+        <v>250926</v>
       </c>
       <c r="F23" s="13">
-        <v>250926</v>
+        <v>339263</v>
       </c>
       <c r="G23" s="13">
-        <v>339263</v>
-      </c>
-      <c r="H23" s="13">
         <v>838118</v>
       </c>
+      <c r="H23" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="I23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="13" t="s">
-        <v>15</v>
+      <c r="J23" s="13">
+        <v>567700</v>
       </c>
       <c r="K23" s="13">
-        <v>567700</v>
+        <v>761299</v>
       </c>
       <c r="L23" s="13">
-        <v>761299</v>
+        <v>798203</v>
       </c>
       <c r="M23" s="13">
-        <v>798203</v>
+        <v>853314</v>
       </c>
       <c r="N23" s="13">
-        <v>853314</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>840364</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1437,7 +1437,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1452,7 +1452,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1467,26 +1467,26 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="I27" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>9</v>
@@ -1504,7 +1504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1519,7 +1519,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>31</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>33</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>35</v>
       </c>
@@ -1605,11 +1605,11 @@
         <v>34</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0</v>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>15</v>
@@ -1636,7 +1636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>36</v>
       </c>
@@ -1659,23 +1659,23 @@
       <c r="I32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J32" s="11" t="s">
-        <v>15</v>
+      <c r="J32" s="11">
+        <v>79</v>
       </c>
       <c r="K32" s="11">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="L32" s="11">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M32" s="11">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="N32" s="11">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>37</v>
       </c>
@@ -1684,37 +1684,37 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="F33" s="9">
-        <v>64</v>
-      </c>
-      <c r="G33" s="9">
         <v>161</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="9">
+      <c r="G33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="9">
         <v>67</v>
       </c>
-      <c r="J33" s="9" t="s">
-        <v>15</v>
+      <c r="I33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="9">
+        <v>21</v>
       </c>
       <c r="K33" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L33" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M33" s="9">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="N33" s="9">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>38</v>
       </c>
@@ -1723,37 +1723,37 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="F34" s="11">
-        <v>52</v>
-      </c>
-      <c r="G34" s="11">
         <v>57</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="11">
+      <c r="G34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="11">
         <v>65</v>
       </c>
-      <c r="J34" s="11" t="s">
-        <v>15</v>
+      <c r="I34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="11">
+        <v>2</v>
       </c>
       <c r="K34" s="11">
+        <v>62</v>
+      </c>
+      <c r="L34" s="11">
+        <v>16</v>
+      </c>
+      <c r="M34" s="11">
         <v>2</v>
       </c>
-      <c r="L34" s="11">
-        <v>62</v>
-      </c>
-      <c r="M34" s="11">
-        <v>16</v>
-      </c>
       <c r="N34" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>39</v>
       </c>
@@ -1762,37 +1762,37 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F35" s="9">
+        <v>104</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="9">
         <v>80</v>
       </c>
-      <c r="G35" s="9">
-        <v>104</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="9">
-        <v>80</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>15</v>
+      <c r="I35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="9">
+        <v>109</v>
       </c>
       <c r="K35" s="9">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="L35" s="9">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="M35" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N35" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>40</v>
       </c>
@@ -1801,37 +1801,37 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>2746</v>
+        <v>2479</v>
       </c>
       <c r="F36" s="11">
-        <v>2479</v>
-      </c>
-      <c r="G36" s="11">
         <v>2998</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="11">
+      <c r="G36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="11">
         <v>825</v>
       </c>
-      <c r="J36" s="11" t="s">
-        <v>15</v>
+      <c r="I36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="11">
+        <v>3003</v>
       </c>
       <c r="K36" s="11">
-        <v>3003</v>
+        <v>3318</v>
       </c>
       <c r="L36" s="11">
-        <v>3318</v>
+        <v>2504</v>
       </c>
       <c r="M36" s="11">
-        <v>2504</v>
+        <v>1880</v>
       </c>
       <c r="N36" s="11">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>41</v>
       </c>
@@ -1840,14 +1840,14 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="F37" s="9">
-        <v>1</v>
-      </c>
-      <c r="G37" s="9">
         <v>65</v>
       </c>
+      <c r="G37" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H37" s="9" t="s">
         <v>15</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>42</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>43</v>
       </c>
@@ -1917,75 +1917,75 @@
         <v>34</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="9">
+      <c r="E39" s="9">
         <v>2</v>
       </c>
+      <c r="F39" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G39" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="9">
+      <c r="H39" s="9">
         <v>1</v>
       </c>
-      <c r="J39" s="9" t="s">
-        <v>15</v>
+      <c r="I39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="9">
+        <v>1</v>
       </c>
       <c r="K39" s="9">
+        <v>0</v>
+      </c>
+      <c r="L39" s="9">
         <v>1</v>
       </c>
-      <c r="L39" s="9">
-        <v>0</v>
-      </c>
       <c r="M39" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>3207</v>
+        <v>2678</v>
       </c>
       <c r="F40" s="13">
-        <v>2678</v>
+        <v>3385</v>
       </c>
       <c r="G40" s="13">
-        <v>3385</v>
+        <v>0</v>
       </c>
       <c r="H40" s="13">
-        <v>0</v>
+        <v>1038</v>
       </c>
       <c r="I40" s="13">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="J40" s="13">
-        <v>0</v>
+        <v>3215</v>
       </c>
       <c r="K40" s="13">
-        <v>3215</v>
+        <v>3499</v>
       </c>
       <c r="L40" s="13">
-        <v>3499</v>
+        <v>2620</v>
       </c>
       <c r="M40" s="13">
-        <v>2620</v>
+        <v>2039</v>
       </c>
       <c r="N40" s="13">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2000,7 +2000,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2015,7 +2015,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2030,26 +2030,26 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="G44" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="I44" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>9</v>
@@ -2067,7 +2067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2082,7 +2082,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>31</v>
       </c>
@@ -2093,11 +2093,11 @@
       <c r="E46" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="9">
-        <v>0</v>
+      <c r="F46" s="9">
+        <v>0</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>15</v>
@@ -2121,7 +2121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>33</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>35</v>
       </c>
@@ -2168,12 +2168,12 @@
         <v>34</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="9">
+      <c r="E48" s="9">
         <v>2820</v>
       </c>
+      <c r="F48" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G48" s="9" t="s">
         <v>15</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>36</v>
       </c>
@@ -2216,29 +2216,29 @@
       <c r="G49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="11" t="s">
-        <v>15</v>
+      <c r="H49" s="11">
+        <v>1283</v>
       </c>
       <c r="I49" s="11">
-        <v>1283</v>
+        <v>1711</v>
       </c>
       <c r="J49" s="11">
-        <v>1711</v>
+        <v>656</v>
       </c>
       <c r="K49" s="11">
-        <v>656</v>
+        <v>772</v>
       </c>
       <c r="L49" s="11">
-        <v>772</v>
+        <v>700</v>
       </c>
       <c r="M49" s="11">
-        <v>700</v>
+        <v>662</v>
       </c>
       <c r="N49" s="11">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>37</v>
       </c>
@@ -2247,37 +2247,37 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="F50" s="9">
-        <v>146</v>
-      </c>
-      <c r="G50" s="9">
         <v>-296</v>
       </c>
-      <c r="H50" s="9" t="s">
-        <v>15</v>
+      <c r="G50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="9">
+        <v>17</v>
       </c>
       <c r="I50" s="9">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="J50" s="9">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="K50" s="9">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="L50" s="9">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="M50" s="9">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="N50" s="9">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>38</v>
       </c>
@@ -2286,37 +2286,37 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="F51" s="11">
-        <v>107</v>
-      </c>
-      <c r="G51" s="11">
         <v>-81</v>
       </c>
-      <c r="H51" s="11" t="s">
-        <v>15</v>
+      <c r="G51" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="11">
+        <v>-68</v>
       </c>
       <c r="I51" s="11">
-        <v>-68</v>
+        <v>82</v>
       </c>
       <c r="J51" s="11">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K51" s="11">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="L51" s="11">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="M51" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N51" s="11">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>39</v>
       </c>
@@ -2325,37 +2325,37 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
-        <v>644</v>
+        <v>601</v>
       </c>
       <c r="F52" s="9">
-        <v>601</v>
-      </c>
-      <c r="G52" s="9">
         <v>-490</v>
       </c>
-      <c r="H52" s="9" t="s">
-        <v>15</v>
+      <c r="G52" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="9">
+        <v>435</v>
       </c>
       <c r="I52" s="9">
-        <v>435</v>
+        <v>1430</v>
       </c>
       <c r="J52" s="9">
-        <v>1430</v>
+        <v>520</v>
       </c>
       <c r="K52" s="9">
-        <v>520</v>
+        <v>568</v>
       </c>
       <c r="L52" s="9">
-        <v>568</v>
+        <v>537</v>
       </c>
       <c r="M52" s="9">
-        <v>537</v>
+        <v>979</v>
       </c>
       <c r="N52" s="9">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>40</v>
       </c>
@@ -2364,37 +2364,37 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>11664</v>
+        <v>9157</v>
       </c>
       <c r="F53" s="11">
-        <v>9157</v>
-      </c>
-      <c r="G53" s="11">
         <v>-6827</v>
       </c>
-      <c r="H53" s="11" t="s">
-        <v>15</v>
+      <c r="G53" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="11">
+        <v>13944</v>
       </c>
       <c r="I53" s="11">
-        <v>13944</v>
+        <v>30853</v>
       </c>
       <c r="J53" s="11">
-        <v>30853</v>
+        <v>12228</v>
       </c>
       <c r="K53" s="11">
-        <v>12228</v>
+        <v>12189</v>
       </c>
       <c r="L53" s="11">
-        <v>12189</v>
+        <v>11549</v>
       </c>
       <c r="M53" s="11">
-        <v>11549</v>
+        <v>13614</v>
       </c>
       <c r="N53" s="11">
-        <v>13614</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12476</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>41</v>
       </c>
@@ -2403,14 +2403,14 @@
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
-        <v>581</v>
+        <v>615</v>
       </c>
       <c r="F54" s="9">
-        <v>615</v>
-      </c>
-      <c r="G54" s="9">
         <v>-188</v>
       </c>
+      <c r="G54" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H54" s="9" t="s">
         <v>15</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>42</v>
       </c>
@@ -2444,11 +2444,11 @@
       <c r="E55" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" s="11">
-        <v>0</v>
+      <c r="F55" s="11">
+        <v>0</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>15</v>
@@ -2472,7 +2472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>43</v>
       </c>
@@ -2480,75 +2480,75 @@
         <v>34</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
-        <v>15</v>
+      <c r="E56" s="9">
+        <v>0</v>
       </c>
       <c r="F56" s="9">
-        <v>0</v>
-      </c>
-      <c r="G56" s="9">
         <v>2</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>15</v>
+      <c r="G56" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="9">
+        <v>2</v>
       </c>
       <c r="I56" s="9">
         <v>2</v>
       </c>
       <c r="J56" s="9">
+        <v>0</v>
+      </c>
+      <c r="K56" s="9">
         <v>2</v>
-      </c>
-      <c r="K56" s="9">
-        <v>0</v>
       </c>
       <c r="L56" s="9">
         <v>2</v>
       </c>
       <c r="M56" s="9">
+        <v>0</v>
+      </c>
+      <c r="N56" s="9">
         <v>2</v>
       </c>
-      <c r="N56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>13149</v>
+        <v>13446</v>
       </c>
       <c r="F57" s="13">
-        <v>13446</v>
+        <v>-7880</v>
       </c>
       <c r="G57" s="13">
-        <v>-7880</v>
+        <v>0</v>
       </c>
       <c r="H57" s="13">
-        <v>0</v>
+        <v>15613</v>
       </c>
       <c r="I57" s="13">
-        <v>15613</v>
+        <v>34273</v>
       </c>
       <c r="J57" s="13">
-        <v>34273</v>
+        <v>13622</v>
       </c>
       <c r="K57" s="13">
-        <v>13622</v>
+        <v>13629</v>
       </c>
       <c r="L57" s="13">
-        <v>13629</v>
+        <v>12959</v>
       </c>
       <c r="M57" s="13">
-        <v>12959</v>
+        <v>15437</v>
       </c>
       <c r="N57" s="13">
-        <v>15437</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13998</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2563,7 +2563,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2578,7 +2578,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2593,26 +2593,26 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="G61" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G61" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="I61" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J61" s="6" t="s">
         <v>9</v>
@@ -2630,7 +2630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2645,7 +2645,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>31</v>
       </c>
@@ -2656,11 +2656,11 @@
       <c r="E63" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" s="9">
-        <v>0</v>
+      <c r="F63" s="9">
+        <v>0</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>15</v>
@@ -2684,7 +2684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>33</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>35</v>
       </c>
@@ -2731,12 +2731,12 @@
         <v>34</v>
       </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="9">
+      <c r="E65" s="9">
         <v>2820</v>
       </c>
+      <c r="F65" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G65" s="9" t="s">
         <v>15</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>36</v>
       </c>
@@ -2779,29 +2779,29 @@
       <c r="G66" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="11" t="s">
-        <v>15</v>
+      <c r="H66" s="11">
+        <v>1249</v>
       </c>
       <c r="I66" s="11">
-        <v>1249</v>
+        <v>1695</v>
       </c>
       <c r="J66" s="11">
-        <v>1695</v>
+        <v>680</v>
       </c>
       <c r="K66" s="11">
-        <v>680</v>
+        <v>785</v>
       </c>
       <c r="L66" s="11">
-        <v>785</v>
+        <v>679</v>
       </c>
       <c r="M66" s="11">
-        <v>679</v>
+        <v>714</v>
       </c>
       <c r="N66" s="11">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>37</v>
       </c>
@@ -2810,37 +2810,37 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="F67" s="9">
-        <v>143</v>
-      </c>
-      <c r="G67" s="9">
         <v>-255</v>
       </c>
-      <c r="H67" s="9" t="s">
-        <v>15</v>
+      <c r="G67" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="9">
+        <v>42</v>
       </c>
       <c r="I67" s="9">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="J67" s="9">
-        <v>254</v>
+        <v>131</v>
       </c>
       <c r="K67" s="9">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="L67" s="9">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="M67" s="9">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="N67" s="9">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>38</v>
       </c>
@@ -2849,37 +2849,37 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="F68" s="11">
-        <v>94</v>
-      </c>
-      <c r="G68" s="11">
         <v>-145</v>
       </c>
-      <c r="H68" s="11" t="s">
-        <v>15</v>
+      <c r="G68" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="11">
+        <v>-13</v>
       </c>
       <c r="I68" s="11">
-        <v>-13</v>
+        <v>198</v>
       </c>
       <c r="J68" s="11">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="K68" s="11">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="L68" s="11">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="M68" s="11">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="N68" s="11">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>39</v>
       </c>
@@ -2888,37 +2888,37 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
-        <v>650</v>
+        <v>601</v>
       </c>
       <c r="F69" s="9">
-        <v>601</v>
-      </c>
-      <c r="G69" s="9">
         <v>-496</v>
       </c>
-      <c r="H69" s="9" t="s">
-        <v>15</v>
+      <c r="G69" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="9">
+        <v>449</v>
       </c>
       <c r="I69" s="9">
-        <v>449</v>
+        <v>1426</v>
       </c>
       <c r="J69" s="9">
-        <v>1426</v>
+        <v>577</v>
       </c>
       <c r="K69" s="9">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="L69" s="9">
-        <v>582</v>
+        <v>535</v>
       </c>
       <c r="M69" s="9">
-        <v>535</v>
+        <v>926</v>
       </c>
       <c r="N69" s="9">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>40</v>
       </c>
@@ -2927,37 +2927,37 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>11413</v>
+        <v>10811</v>
       </c>
       <c r="F70" s="11">
-        <v>10811</v>
-      </c>
-      <c r="G70" s="11">
         <v>-6262</v>
       </c>
-      <c r="H70" s="11" t="s">
-        <v>15</v>
+      <c r="G70" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="11">
+        <v>12263</v>
       </c>
       <c r="I70" s="11">
-        <v>12263</v>
+        <v>30664</v>
       </c>
       <c r="J70" s="11">
-        <v>30664</v>
+        <v>11913</v>
       </c>
       <c r="K70" s="11">
-        <v>11913</v>
+        <v>13003</v>
       </c>
       <c r="L70" s="11">
-        <v>13003</v>
+        <v>12173</v>
       </c>
       <c r="M70" s="11">
-        <v>12173</v>
+        <v>13979</v>
       </c>
       <c r="N70" s="11">
-        <v>13979</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10312</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>41</v>
       </c>
@@ -2966,14 +2966,14 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="F71" s="9">
-        <v>566</v>
-      </c>
-      <c r="G71" s="9">
         <v>-266</v>
       </c>
+      <c r="G71" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H71" s="9" t="s">
         <v>15</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>42</v>
       </c>
@@ -3007,11 +3007,11 @@
       <c r="E72" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" s="11">
-        <v>0</v>
+      <c r="F72" s="11">
+        <v>0</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>15</v>
@@ -3035,7 +3035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>43</v>
       </c>
@@ -3043,23 +3043,23 @@
         <v>34</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
-        <v>15</v>
+      <c r="E73" s="9">
+        <v>1</v>
       </c>
       <c r="F73" s="9">
+        <v>2</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="9">
         <v>1</v>
       </c>
-      <c r="G73" s="9">
+      <c r="I73" s="9">
         <v>2</v>
       </c>
-      <c r="H73" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I73" s="9">
+      <c r="J73" s="9">
         <v>1</v>
-      </c>
-      <c r="J73" s="9">
-        <v>2</v>
       </c>
       <c r="K73" s="9">
         <v>1</v>
@@ -3068,50 +3068,50 @@
         <v>1</v>
       </c>
       <c r="M73" s="9">
+        <v>2</v>
+      </c>
+      <c r="N73" s="9">
         <v>1</v>
       </c>
-      <c r="N73" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>12972</v>
+        <v>15036</v>
       </c>
       <c r="F74" s="13">
-        <v>15036</v>
+        <v>-7422</v>
       </c>
       <c r="G74" s="13">
-        <v>-7422</v>
+        <v>0</v>
       </c>
       <c r="H74" s="13">
-        <v>0</v>
+        <v>13991</v>
       </c>
       <c r="I74" s="13">
-        <v>13991</v>
+        <v>34239</v>
       </c>
       <c r="J74" s="13">
-        <v>34239</v>
+        <v>13338</v>
       </c>
       <c r="K74" s="13">
-        <v>13338</v>
+        <v>14508</v>
       </c>
       <c r="L74" s="13">
-        <v>14508</v>
+        <v>13540</v>
       </c>
       <c r="M74" s="13">
-        <v>13540</v>
+        <v>15798</v>
       </c>
       <c r="N74" s="13">
-        <v>15798</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11759</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3126,7 +3126,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3141,7 +3141,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3156,26 +3156,26 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="G78" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G78" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="I78" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J78" s="6" t="s">
         <v>9</v>
@@ -3193,7 +3193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3208,7 +3208,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>31</v>
       </c>
@@ -3219,11 +3219,11 @@
       <c r="E80" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" s="9">
-        <v>0</v>
+      <c r="F80" s="9">
+        <v>0</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>15</v>
@@ -3247,7 +3247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>33</v>
       </c>
@@ -3255,8 +3255,8 @@
         <v>34</v>
       </c>
       <c r="D81" s="11"/>
-      <c r="E81" s="11">
-        <v>0</v>
+      <c r="E81" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="F81" s="11" t="s">
         <v>15</v>
@@ -3286,7 +3286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>35</v>
       </c>
@@ -3294,11 +3294,11 @@
         <v>34</v>
       </c>
       <c r="D82" s="9"/>
-      <c r="E82" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" s="9">
-        <v>0</v>
+      <c r="E82" s="9">
+        <v>0</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G82" s="9" t="s">
         <v>15</v>
@@ -3325,7 +3325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>36</v>
       </c>
@@ -3342,29 +3342,29 @@
       <c r="G83" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="11" t="s">
-        <v>15</v>
+      <c r="H83" s="11">
+        <v>97</v>
       </c>
       <c r="I83" s="11">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="J83" s="11">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="K83" s="11">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L83" s="11">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="M83" s="11">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="N83" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>37</v>
       </c>
@@ -3373,37 +3373,37 @@
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="F84" s="9">
-        <v>67</v>
-      </c>
-      <c r="G84" s="9">
         <v>80</v>
       </c>
-      <c r="H84" s="9" t="s">
-        <v>15</v>
+      <c r="G84" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" s="9">
+        <v>58</v>
       </c>
       <c r="I84" s="9">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="J84" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K84" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L84" s="9">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="M84" s="9">
         <v>52</v>
       </c>
       <c r="N84" s="9">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>38</v>
       </c>
@@ -3412,37 +3412,37 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F85" s="11">
-        <v>65</v>
-      </c>
-      <c r="G85" s="11">
         <v>118</v>
       </c>
-      <c r="H85" s="11" t="s">
-        <v>15</v>
+      <c r="G85" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" s="11">
+        <v>76</v>
       </c>
       <c r="I85" s="11">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="J85" s="11">
+        <v>62</v>
+      </c>
+      <c r="K85" s="11">
+        <v>16</v>
+      </c>
+      <c r="L85" s="11">
         <v>2</v>
       </c>
-      <c r="K85" s="11">
-        <v>62</v>
-      </c>
-      <c r="L85" s="11">
-        <v>16</v>
-      </c>
       <c r="M85" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N85" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>39</v>
       </c>
@@ -3451,37 +3451,37 @@
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
+        <v>80</v>
+      </c>
+      <c r="F86" s="9">
         <v>104</v>
       </c>
-      <c r="F86" s="9">
+      <c r="G86" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="9">
+        <v>90</v>
+      </c>
+      <c r="I86" s="9">
+        <v>108</v>
+      </c>
+      <c r="J86" s="9">
+        <v>52</v>
+      </c>
+      <c r="K86" s="9">
+        <v>38</v>
+      </c>
+      <c r="L86" s="9">
+        <v>40</v>
+      </c>
+      <c r="M86" s="9">
+        <v>93</v>
+      </c>
+      <c r="N86" s="9">
         <v>80</v>
       </c>
-      <c r="G86" s="9">
-        <v>104</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I86" s="9">
-        <v>90</v>
-      </c>
-      <c r="J86" s="9">
-        <v>108</v>
-      </c>
-      <c r="K86" s="9">
-        <v>52</v>
-      </c>
-      <c r="L86" s="9">
-        <v>38</v>
-      </c>
-      <c r="M86" s="9">
-        <v>40</v>
-      </c>
-      <c r="N86" s="9">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>40</v>
       </c>
@@ -3490,37 +3490,37 @@
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
-        <v>2998</v>
+        <v>825</v>
       </c>
       <c r="F87" s="11">
-        <v>825</v>
-      </c>
-      <c r="G87" s="11">
         <v>31087</v>
       </c>
-      <c r="H87" s="11" t="s">
-        <v>15</v>
+      <c r="G87" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="11">
+        <v>2841</v>
       </c>
       <c r="I87" s="11">
-        <v>2841</v>
+        <v>3004</v>
       </c>
       <c r="J87" s="11">
-        <v>3004</v>
+        <v>3318</v>
       </c>
       <c r="K87" s="11">
-        <v>3318</v>
+        <v>2504</v>
       </c>
       <c r="L87" s="11">
-        <v>2504</v>
+        <v>1880</v>
       </c>
       <c r="M87" s="11">
-        <v>1880</v>
+        <v>1515</v>
       </c>
       <c r="N87" s="11">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>41</v>
       </c>
@@ -3529,14 +3529,14 @@
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F88" s="9">
-        <v>50</v>
-      </c>
-      <c r="G88" s="9">
         <v>63</v>
       </c>
+      <c r="G88" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H88" s="9" t="s">
         <v>15</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>42</v>
       </c>
@@ -3570,11 +3570,11 @@
       <c r="E89" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F89" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" s="11">
-        <v>0</v>
+      <c r="F89" s="11">
+        <v>0</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="H89" s="11" t="s">
         <v>15</v>
@@ -3598,7 +3598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>43</v>
       </c>
@@ -3606,75 +3606,75 @@
         <v>34</v>
       </c>
       <c r="D90" s="9"/>
-      <c r="E90" s="9" t="s">
-        <v>15</v>
+      <c r="E90" s="9">
+        <v>1</v>
       </c>
       <c r="F90" s="9">
         <v>1</v>
       </c>
-      <c r="G90" s="9">
-        <v>1</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>15</v>
+      <c r="G90" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90" s="9">
+        <v>2</v>
       </c>
       <c r="I90" s="9">
         <v>2</v>
       </c>
       <c r="J90" s="9">
+        <v>0</v>
+      </c>
+      <c r="K90" s="9">
+        <v>1</v>
+      </c>
+      <c r="L90" s="9">
         <v>2</v>
       </c>
-      <c r="K90" s="9">
-        <v>0</v>
-      </c>
-      <c r="L90" s="9">
+      <c r="M90" s="9">
+        <v>0</v>
+      </c>
+      <c r="N90" s="9">
         <v>1</v>
       </c>
-      <c r="M90" s="9">
-        <v>2</v>
-      </c>
-      <c r="N90" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13">
-        <v>3385</v>
+        <v>1088</v>
       </c>
       <c r="F91" s="13">
-        <v>1088</v>
+        <v>31453</v>
       </c>
       <c r="G91" s="13">
-        <v>31453</v>
+        <v>0</v>
       </c>
       <c r="H91" s="13">
-        <v>0</v>
+        <v>3164</v>
       </c>
       <c r="I91" s="13">
-        <v>3164</v>
+        <v>3216</v>
       </c>
       <c r="J91" s="13">
-        <v>3216</v>
+        <v>3499</v>
       </c>
       <c r="K91" s="13">
-        <v>3499</v>
+        <v>2620</v>
       </c>
       <c r="L91" s="13">
-        <v>2620</v>
+        <v>2039</v>
       </c>
       <c r="M91" s="13">
-        <v>2039</v>
+        <v>1678</v>
       </c>
       <c r="N91" s="13">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3689,7 +3689,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3704,7 +3704,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3719,26 +3719,26 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="G95" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G95" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="I95" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J95" s="6" t="s">
         <v>9</v>
@@ -3756,7 +3756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3771,7 +3771,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>31</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>33</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>35</v>
       </c>
@@ -3857,11 +3857,11 @@
         <v>32</v>
       </c>
       <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" s="9">
-        <v>0</v>
+      <c r="E99" s="9">
+        <v>0</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G99" s="9" t="s">
         <v>15</v>
@@ -3888,7 +3888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>36</v>
       </c>
@@ -3911,23 +3911,23 @@
       <c r="I100" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J100" s="11" t="s">
-        <v>15</v>
+      <c r="J100" s="11">
+        <v>23062</v>
       </c>
       <c r="K100" s="11">
-        <v>23062</v>
+        <v>10176</v>
       </c>
       <c r="L100" s="11">
-        <v>10176</v>
+        <v>7023</v>
       </c>
       <c r="M100" s="11">
-        <v>7023</v>
+        <v>8854</v>
       </c>
       <c r="N100" s="11">
-        <v>8854</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>37</v>
       </c>
@@ -3936,37 +3936,37 @@
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
-        <v>9962</v>
+        <v>3601</v>
       </c>
       <c r="F101" s="9">
-        <v>3601</v>
-      </c>
-      <c r="G101" s="9">
         <v>8904</v>
       </c>
-      <c r="H101" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I101" s="9">
+      <c r="G101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" s="9">
         <v>3828</v>
       </c>
-      <c r="J101" s="9" t="s">
-        <v>15</v>
+      <c r="I101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" s="9">
+        <v>1311</v>
       </c>
       <c r="K101" s="9">
-        <v>1311</v>
+        <v>1070</v>
       </c>
       <c r="L101" s="9">
-        <v>1070</v>
+        <v>1886</v>
       </c>
       <c r="M101" s="9">
-        <v>1886</v>
+        <v>17556</v>
       </c>
       <c r="N101" s="9">
-        <v>17556</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12867</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>38</v>
       </c>
@@ -3975,37 +3975,37 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>3652</v>
+        <v>2478</v>
       </c>
       <c r="F102" s="11">
-        <v>2478</v>
-      </c>
-      <c r="G102" s="11">
         <v>2438</v>
       </c>
-      <c r="H102" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I102" s="11">
+      <c r="G102" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" s="11">
         <v>5710</v>
       </c>
-      <c r="J102" s="11" t="s">
-        <v>15</v>
+      <c r="I102" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J102" s="11">
+        <v>292</v>
       </c>
       <c r="K102" s="11">
-        <v>292</v>
+        <v>7541</v>
       </c>
       <c r="L102" s="11">
-        <v>7541</v>
+        <v>2161</v>
       </c>
       <c r="M102" s="11">
-        <v>2161</v>
+        <v>440</v>
       </c>
       <c r="N102" s="11">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>39</v>
       </c>
@@ -4014,37 +4014,37 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>587</v>
+        <v>484</v>
       </c>
       <c r="F103" s="9">
+        <v>576</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="9">
         <v>484</v>
       </c>
-      <c r="G103" s="9">
-        <v>576</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I103" s="9">
-        <v>484</v>
-      </c>
-      <c r="J103" s="9" t="s">
-        <v>15</v>
+      <c r="I103" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J103" s="9">
+        <v>867</v>
       </c>
       <c r="K103" s="9">
-        <v>867</v>
+        <v>418</v>
       </c>
       <c r="L103" s="9">
-        <v>418</v>
+        <v>351</v>
       </c>
       <c r="M103" s="9">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="N103" s="9">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>40</v>
       </c>
@@ -4053,37 +4053,37 @@
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>1648</v>
+        <v>964</v>
       </c>
       <c r="F104" s="11">
-        <v>964</v>
-      </c>
-      <c r="G104" s="11">
         <v>1799</v>
       </c>
-      <c r="H104" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I104" s="11">
+      <c r="G104" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="11">
         <v>1034</v>
       </c>
-      <c r="J104" s="11" t="s">
-        <v>15</v>
+      <c r="I104" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J104" s="11">
+        <v>5557</v>
       </c>
       <c r="K104" s="11">
-        <v>5557</v>
+        <v>8628</v>
       </c>
       <c r="L104" s="11">
-        <v>8628</v>
+        <v>6512</v>
       </c>
       <c r="M104" s="11">
-        <v>6512</v>
+        <v>4890</v>
       </c>
       <c r="N104" s="11">
-        <v>4890</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>41</v>
       </c>
@@ -4092,14 +4092,14 @@
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
-        <v>2783</v>
+        <v>59</v>
       </c>
       <c r="F105" s="9">
-        <v>59</v>
-      </c>
-      <c r="G105" s="9">
         <v>3254</v>
       </c>
+      <c r="G105" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H105" s="9" t="s">
         <v>15</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>42</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>43</v>
       </c>
@@ -4169,75 +4169,75 @@
         <v>32</v>
       </c>
       <c r="D107" s="9"/>
-      <c r="E107" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F107" s="9">
+      <c r="E107" s="9">
         <v>93</v>
       </c>
+      <c r="F107" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G107" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H107" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I107" s="9">
+      <c r="H107" s="9">
         <v>47</v>
       </c>
-      <c r="J107" s="9" t="s">
-        <v>15</v>
+      <c r="I107" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J107" s="9">
+        <v>195</v>
       </c>
       <c r="K107" s="9">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="L107" s="9">
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="M107" s="9">
-        <v>363</v>
+        <v>466</v>
       </c>
       <c r="N107" s="9">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13">
-        <v>18632</v>
+        <v>7679</v>
       </c>
       <c r="F108" s="13">
-        <v>7679</v>
+        <v>16971</v>
       </c>
       <c r="G108" s="13">
-        <v>16971</v>
+        <v>0</v>
       </c>
       <c r="H108" s="13">
-        <v>0</v>
+        <v>11103</v>
       </c>
       <c r="I108" s="13">
-        <v>11103</v>
+        <v>0</v>
       </c>
       <c r="J108" s="13">
-        <v>0</v>
+        <v>31284</v>
       </c>
       <c r="K108" s="13">
-        <v>31284</v>
+        <v>27833</v>
       </c>
       <c r="L108" s="13">
-        <v>27833</v>
+        <v>18296</v>
       </c>
       <c r="M108" s="13">
-        <v>18296</v>
+        <v>32569</v>
       </c>
       <c r="N108" s="13">
-        <v>32569</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20374</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4252,7 +4252,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4267,7 +4267,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4282,26 +4282,26 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
       <c r="E112" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F112" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F112" s="6" t="s">
+      <c r="G112" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H112" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G112" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="I112" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J112" s="6" t="s">
         <v>9</v>
@@ -4319,7 +4319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4334,7 +4334,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>31</v>
       </c>
@@ -4345,11 +4345,11 @@
       <c r="E114" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F114" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G114" s="9">
-        <v>0</v>
+      <c r="F114" s="9">
+        <v>0</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="H114" s="9" t="s">
         <v>15</v>
@@ -4373,7 +4373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>33</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>35</v>
       </c>
@@ -4420,12 +4420,12 @@
         <v>32</v>
       </c>
       <c r="D116" s="9"/>
-      <c r="E116" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F116" s="9">
+      <c r="E116" s="9">
         <v>38286</v>
       </c>
+      <c r="F116" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G116" s="9" t="s">
         <v>15</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>36</v>
       </c>
@@ -4468,29 +4468,29 @@
       <c r="G117" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H117" s="11" t="s">
-        <v>15</v>
+      <c r="H117" s="11">
+        <v>258453</v>
       </c>
       <c r="I117" s="11">
-        <v>258453</v>
+        <v>360444</v>
       </c>
       <c r="J117" s="11">
-        <v>360444</v>
+        <v>141887</v>
       </c>
       <c r="K117" s="11">
-        <v>141887</v>
+        <v>115460</v>
       </c>
       <c r="L117" s="11">
-        <v>115460</v>
+        <v>119454</v>
       </c>
       <c r="M117" s="11">
-        <v>119454</v>
+        <v>76222</v>
       </c>
       <c r="N117" s="11">
-        <v>76222</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+        <v>69966</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>37</v>
       </c>
@@ -4499,37 +4499,37 @@
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9">
-        <v>10134</v>
+        <v>8369</v>
       </c>
       <c r="F118" s="9">
-        <v>8369</v>
-      </c>
-      <c r="G118" s="9">
         <v>-15506</v>
       </c>
-      <c r="H118" s="9" t="s">
-        <v>15</v>
+      <c r="G118" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" s="9">
+        <v>1645</v>
       </c>
       <c r="I118" s="9">
-        <v>1645</v>
+        <v>12044</v>
       </c>
       <c r="J118" s="9">
-        <v>12044</v>
+        <v>9812</v>
       </c>
       <c r="K118" s="9">
-        <v>9812</v>
+        <v>4968</v>
       </c>
       <c r="L118" s="9">
-        <v>4968</v>
+        <v>29684</v>
       </c>
       <c r="M118" s="9">
-        <v>29684</v>
+        <v>32621</v>
       </c>
       <c r="N118" s="9">
-        <v>32621</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9830</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>38</v>
       </c>
@@ -4538,37 +4538,37 @@
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11">
-        <v>3525</v>
+        <v>9360</v>
       </c>
       <c r="F119" s="11">
-        <v>9360</v>
-      </c>
-      <c r="G119" s="11">
         <v>16004</v>
       </c>
-      <c r="H119" s="11" t="s">
-        <v>15</v>
+      <c r="G119" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" s="11">
+        <v>-5093</v>
       </c>
       <c r="I119" s="11">
-        <v>-5093</v>
+        <v>9270</v>
       </c>
       <c r="J119" s="11">
-        <v>9270</v>
+        <v>11457</v>
       </c>
       <c r="K119" s="11">
-        <v>11457</v>
+        <v>5816</v>
       </c>
       <c r="L119" s="11">
-        <v>5816</v>
+        <v>8471</v>
       </c>
       <c r="M119" s="11">
-        <v>8471</v>
+        <v>7123</v>
       </c>
       <c r="N119" s="11">
-        <v>7123</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10686</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>39</v>
       </c>
@@ -4577,37 +4577,37 @@
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9">
-        <v>3401</v>
+        <v>3335</v>
       </c>
       <c r="F120" s="9">
-        <v>3335</v>
-      </c>
-      <c r="G120" s="9">
         <v>-1617</v>
       </c>
-      <c r="H120" s="9" t="s">
-        <v>15</v>
+      <c r="G120" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" s="9">
+        <v>3779</v>
       </c>
       <c r="I120" s="9">
-        <v>3779</v>
+        <v>9984</v>
       </c>
       <c r="J120" s="9">
-        <v>9984</v>
+        <v>3586</v>
       </c>
       <c r="K120" s="9">
-        <v>3586</v>
+        <v>5665</v>
       </c>
       <c r="L120" s="9">
-        <v>5665</v>
+        <v>6657</v>
       </c>
       <c r="M120" s="9">
-        <v>6657</v>
+        <v>12852</v>
       </c>
       <c r="N120" s="9">
-        <v>12852</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9274</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>40</v>
       </c>
@@ -4616,37 +4616,37 @@
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
-        <v>6998</v>
+        <v>10988</v>
       </c>
       <c r="F121" s="11">
-        <v>10988</v>
-      </c>
-      <c r="G121" s="11">
         <v>12358</v>
       </c>
-      <c r="H121" s="11" t="s">
-        <v>15</v>
+      <c r="G121" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" s="11">
+        <v>27936</v>
       </c>
       <c r="I121" s="11">
-        <v>27936</v>
+        <v>53264</v>
       </c>
       <c r="J121" s="11">
-        <v>53264</v>
+        <v>31793</v>
       </c>
       <c r="K121" s="11">
-        <v>31793</v>
+        <v>31692</v>
       </c>
       <c r="L121" s="11">
-        <v>31692</v>
+        <v>30028</v>
       </c>
       <c r="M121" s="11">
-        <v>30028</v>
+        <v>35396</v>
       </c>
       <c r="N121" s="11">
-        <v>35396</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>32436</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>41</v>
       </c>
@@ -4655,14 +4655,14 @@
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9">
-        <v>28340</v>
+        <v>39772</v>
       </c>
       <c r="F122" s="9">
-        <v>39772</v>
-      </c>
-      <c r="G122" s="9">
         <v>72794</v>
       </c>
+      <c r="G122" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H122" s="9" t="s">
         <v>15</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>42</v>
       </c>
@@ -4696,11 +4696,11 @@
       <c r="E123" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F123" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" s="11">
-        <v>0</v>
+      <c r="F123" s="11">
+        <v>0</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="H123" s="11" t="s">
         <v>15</v>
@@ -4724,7 +4724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>43</v>
       </c>
@@ -4732,75 +4732,75 @@
         <v>32</v>
       </c>
       <c r="D124" s="9"/>
-      <c r="E124" s="9" t="s">
-        <v>15</v>
+      <c r="E124" s="9">
+        <v>0</v>
       </c>
       <c r="F124" s="9">
-        <v>0</v>
-      </c>
-      <c r="G124" s="9">
         <v>296</v>
       </c>
-      <c r="H124" s="9" t="s">
-        <v>15</v>
+      <c r="G124" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" s="9">
+        <v>289</v>
       </c>
       <c r="I124" s="9">
         <v>289</v>
       </c>
       <c r="J124" s="9">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="K124" s="9">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="L124" s="9">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="M124" s="9">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="N124" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="13">
-        <v>52398</v>
+        <v>110110</v>
       </c>
       <c r="F125" s="13">
-        <v>110110</v>
+        <v>84329</v>
       </c>
       <c r="G125" s="13">
-        <v>84329</v>
+        <v>0</v>
       </c>
       <c r="H125" s="13">
-        <v>0</v>
+        <v>287009</v>
       </c>
       <c r="I125" s="13">
-        <v>287009</v>
+        <v>445295</v>
       </c>
       <c r="J125" s="13">
-        <v>445295</v>
+        <v>198535</v>
       </c>
       <c r="K125" s="13">
-        <v>198535</v>
+        <v>164075</v>
       </c>
       <c r="L125" s="13">
-        <v>164075</v>
+        <v>194744</v>
       </c>
       <c r="M125" s="13">
-        <v>194744</v>
+        <v>164214</v>
       </c>
       <c r="N125" s="13">
-        <v>164214</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>132612</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4815,7 +4815,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -4830,7 +4830,7 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4845,26 +4845,26 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B129" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
       <c r="E129" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F129" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F129" s="6" t="s">
+      <c r="G129" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H129" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G129" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="I129" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J129" s="6" t="s">
         <v>9</v>
@@ -4882,7 +4882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4897,7 +4897,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>31</v>
       </c>
@@ -4908,11 +4908,11 @@
       <c r="E131" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F131" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G131" s="9">
-        <v>0</v>
+      <c r="F131" s="9">
+        <v>0</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="H131" s="9" t="s">
         <v>15</v>
@@ -4936,7 +4936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>33</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>35</v>
       </c>
@@ -4983,12 +4983,12 @@
         <v>32</v>
       </c>
       <c r="D133" s="9"/>
-      <c r="E133" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F133" s="9">
+      <c r="E133" s="9">
         <v>38286</v>
       </c>
+      <c r="F133" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G133" s="9" t="s">
         <v>15</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>36</v>
       </c>
@@ -5031,29 +5031,29 @@
       <c r="G134" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H134" s="11" t="s">
-        <v>15</v>
+      <c r="H134" s="11">
+        <v>250762</v>
       </c>
       <c r="I134" s="11">
-        <v>250762</v>
+        <v>347640</v>
       </c>
       <c r="J134" s="11">
-        <v>347640</v>
+        <v>154773</v>
       </c>
       <c r="K134" s="11">
-        <v>154773</v>
+        <v>118613</v>
       </c>
       <c r="L134" s="11">
-        <v>118613</v>
+        <v>117623</v>
       </c>
       <c r="M134" s="11">
-        <v>117623</v>
+        <v>83888</v>
       </c>
       <c r="N134" s="11">
-        <v>83888</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+        <v>61884</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>37</v>
       </c>
@@ -5062,37 +5062,37 @@
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
-        <v>11192</v>
+        <v>8142</v>
       </c>
       <c r="F135" s="9">
-        <v>8142</v>
-      </c>
-      <c r="G135" s="9">
         <v>-12952</v>
       </c>
-      <c r="H135" s="9" t="s">
-        <v>15</v>
+      <c r="G135" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" s="9">
+        <v>3054</v>
       </c>
       <c r="I135" s="9">
-        <v>3054</v>
+        <v>15505</v>
       </c>
       <c r="J135" s="9">
-        <v>15505</v>
+        <v>10053</v>
       </c>
       <c r="K135" s="9">
-        <v>10053</v>
+        <v>4152</v>
       </c>
       <c r="L135" s="9">
-        <v>4152</v>
+        <v>14014</v>
       </c>
       <c r="M135" s="9">
-        <v>14014</v>
+        <v>37310</v>
       </c>
       <c r="N135" s="9">
-        <v>37310</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20410</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>38</v>
       </c>
@@ -5101,37 +5101,37 @@
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
-        <v>4739</v>
+        <v>6128</v>
       </c>
       <c r="F136" s="11">
-        <v>6128</v>
-      </c>
-      <c r="G136" s="11">
         <v>7033</v>
       </c>
-      <c r="H136" s="11" t="s">
-        <v>15</v>
+      <c r="G136" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" s="11">
+        <v>2290</v>
       </c>
       <c r="I136" s="11">
-        <v>2290</v>
+        <v>21148</v>
       </c>
       <c r="J136" s="11">
-        <v>21148</v>
+        <v>4208</v>
       </c>
       <c r="K136" s="11">
-        <v>4208</v>
+        <v>11196</v>
       </c>
       <c r="L136" s="11">
-        <v>11196</v>
+        <v>10192</v>
       </c>
       <c r="M136" s="11">
-        <v>10192</v>
+        <v>6807</v>
       </c>
       <c r="N136" s="11">
-        <v>6807</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4666</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>39</v>
       </c>
@@ -5140,37 +5140,37 @@
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
-        <v>3412</v>
+        <v>3335</v>
       </c>
       <c r="F137" s="9">
-        <v>3335</v>
-      </c>
-      <c r="G137" s="9">
         <v>-1597</v>
       </c>
-      <c r="H137" s="9" t="s">
-        <v>15</v>
+      <c r="G137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" s="9">
+        <v>3793</v>
       </c>
       <c r="I137" s="9">
-        <v>3793</v>
+        <v>9751</v>
       </c>
       <c r="J137" s="9">
-        <v>9751</v>
+        <v>4035</v>
       </c>
       <c r="K137" s="9">
-        <v>4035</v>
+        <v>5732</v>
       </c>
       <c r="L137" s="9">
-        <v>5732</v>
+        <v>6645</v>
       </c>
       <c r="M137" s="9">
-        <v>6645</v>
+        <v>11619</v>
       </c>
       <c r="N137" s="9">
-        <v>11619</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9483</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>40</v>
       </c>
@@ -5179,37 +5179,37 @@
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>6847</v>
+        <v>10918</v>
       </c>
       <c r="F138" s="11">
-        <v>10918</v>
-      </c>
-      <c r="G138" s="11">
         <v>10597</v>
       </c>
-      <c r="H138" s="11" t="s">
-        <v>15</v>
+      <c r="G138" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" s="11">
+        <v>26289</v>
       </c>
       <c r="I138" s="11">
-        <v>26289</v>
+        <v>51247</v>
       </c>
       <c r="J138" s="11">
-        <v>51247</v>
+        <v>28722</v>
       </c>
       <c r="K138" s="11">
-        <v>28722</v>
+        <v>33808</v>
       </c>
       <c r="L138" s="11">
-        <v>33808</v>
+        <v>31650</v>
       </c>
       <c r="M138" s="11">
-        <v>31650</v>
+        <v>36343</v>
       </c>
       <c r="N138" s="11">
-        <v>36343</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26811</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>41</v>
       </c>
@@ -5218,14 +5218,14 @@
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
-        <v>27870</v>
+        <v>36197</v>
       </c>
       <c r="F139" s="9">
-        <v>36197</v>
-      </c>
-      <c r="G139" s="9">
         <v>61157</v>
       </c>
+      <c r="G139" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H139" s="9" t="s">
         <v>15</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>42</v>
       </c>
@@ -5259,11 +5259,11 @@
       <c r="E140" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F140" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G140" s="11">
-        <v>0</v>
+      <c r="F140" s="11">
+        <v>0</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="H140" s="11" t="s">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>43</v>
       </c>
@@ -5295,75 +5295,75 @@
         <v>32</v>
       </c>
       <c r="D141" s="9"/>
-      <c r="E141" s="9" t="s">
-        <v>15</v>
+      <c r="E141" s="9">
+        <v>46</v>
       </c>
       <c r="F141" s="9">
-        <v>46</v>
-      </c>
-      <c r="G141" s="9">
         <v>156</v>
       </c>
-      <c r="H141" s="9" t="s">
-        <v>15</v>
+      <c r="G141" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" s="9">
+        <v>201</v>
       </c>
       <c r="I141" s="9">
-        <v>201</v>
+        <v>326</v>
       </c>
       <c r="J141" s="9">
-        <v>326</v>
+        <v>195</v>
       </c>
       <c r="K141" s="9">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="L141" s="9">
-        <v>111</v>
+        <v>347</v>
       </c>
       <c r="M141" s="9">
-        <v>347</v>
+        <v>443</v>
       </c>
       <c r="N141" s="9">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
       <c r="E142" s="13">
-        <v>54060</v>
+        <v>103052</v>
       </c>
       <c r="F142" s="13">
-        <v>103052</v>
+        <v>64394</v>
       </c>
       <c r="G142" s="13">
-        <v>64394</v>
+        <v>0</v>
       </c>
       <c r="H142" s="13">
-        <v>0</v>
+        <v>286389</v>
       </c>
       <c r="I142" s="13">
-        <v>286389</v>
+        <v>445617</v>
       </c>
       <c r="J142" s="13">
-        <v>445617</v>
+        <v>201986</v>
       </c>
       <c r="K142" s="13">
-        <v>201986</v>
+        <v>173612</v>
       </c>
       <c r="L142" s="13">
-        <v>173612</v>
+        <v>180471</v>
       </c>
       <c r="M142" s="13">
-        <v>180471</v>
+        <v>176410</v>
       </c>
       <c r="N142" s="13">
-        <v>176410</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>123496</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -5378,7 +5378,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -5393,7 +5393,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -5408,26 +5408,26 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B146" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F146" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F146" s="6" t="s">
+      <c r="G146" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H146" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G146" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H146" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="I146" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J146" s="6" t="s">
         <v>9</v>
@@ -5445,7 +5445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -5460,7 +5460,7 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>31</v>
       </c>
@@ -5471,11 +5471,11 @@
       <c r="E148" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F148" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" s="9">
-        <v>0</v>
+      <c r="F148" s="9">
+        <v>0</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="H148" s="9" t="s">
         <v>15</v>
@@ -5499,7 +5499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>33</v>
       </c>
@@ -5507,8 +5507,8 @@
         <v>32</v>
       </c>
       <c r="D149" s="11"/>
-      <c r="E149" s="11">
-        <v>0</v>
+      <c r="E149" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="F149" s="11" t="s">
         <v>15</v>
@@ -5538,7 +5538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
         <v>35</v>
       </c>
@@ -5546,11 +5546,11 @@
         <v>32</v>
       </c>
       <c r="D150" s="9"/>
-      <c r="E150" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F150" s="9">
-        <v>0</v>
+      <c r="E150" s="9">
+        <v>0</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G150" s="9" t="s">
         <v>15</v>
@@ -5577,7 +5577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="10" t="s">
         <v>36</v>
       </c>
@@ -5594,29 +5594,29 @@
       <c r="G151" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H151" s="11" t="s">
-        <v>15</v>
+      <c r="H151" s="11">
+        <v>18132</v>
       </c>
       <c r="I151" s="11">
-        <v>18132</v>
+        <v>23245</v>
       </c>
       <c r="J151" s="11">
-        <v>23245</v>
+        <v>10176</v>
       </c>
       <c r="K151" s="11">
-        <v>10176</v>
+        <v>7023</v>
       </c>
       <c r="L151" s="11">
-        <v>7023</v>
+        <v>8854</v>
       </c>
       <c r="M151" s="11">
-        <v>8854</v>
+        <v>1188</v>
       </c>
       <c r="N151" s="11">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9271</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
         <v>37</v>
       </c>
@@ -5625,37 +5625,37 @@
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9">
-        <v>8904</v>
+        <v>3828</v>
       </c>
       <c r="F152" s="9">
-        <v>3828</v>
-      </c>
-      <c r="G152" s="9">
         <v>4774</v>
       </c>
-      <c r="H152" s="9" t="s">
-        <v>15</v>
+      <c r="G152" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H152" s="9">
+        <v>3591</v>
       </c>
       <c r="I152" s="9">
-        <v>3591</v>
+        <v>1312</v>
       </c>
       <c r="J152" s="9">
-        <v>1312</v>
+        <v>1070</v>
       </c>
       <c r="K152" s="9">
-        <v>1070</v>
+        <v>1886</v>
       </c>
       <c r="L152" s="9">
-        <v>1886</v>
+        <v>17556</v>
       </c>
       <c r="M152" s="9">
-        <v>17556</v>
+        <v>12867</v>
       </c>
       <c r="N152" s="9">
-        <v>12867</v>
-      </c>
-    </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>38</v>
       </c>
@@ -5664,37 +5664,37 @@
       </c>
       <c r="D153" s="11"/>
       <c r="E153" s="11">
-        <v>2438</v>
+        <v>5710</v>
       </c>
       <c r="F153" s="11">
-        <v>5710</v>
-      </c>
-      <c r="G153" s="11">
         <v>12170</v>
       </c>
-      <c r="H153" s="11" t="s">
-        <v>15</v>
+      <c r="G153" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H153" s="11">
+        <v>8019</v>
       </c>
       <c r="I153" s="11">
-        <v>8019</v>
+        <v>292</v>
       </c>
       <c r="J153" s="11">
-        <v>292</v>
+        <v>7541</v>
       </c>
       <c r="K153" s="11">
-        <v>7541</v>
+        <v>2161</v>
       </c>
       <c r="L153" s="11">
-        <v>2161</v>
+        <v>440</v>
       </c>
       <c r="M153" s="11">
-        <v>440</v>
+        <v>756</v>
       </c>
       <c r="N153" s="11">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6776</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>39</v>
       </c>
@@ -5703,37 +5703,37 @@
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9">
-        <v>576</v>
+        <v>484</v>
       </c>
       <c r="F154" s="9">
-        <v>484</v>
-      </c>
-      <c r="G154" s="9">
         <v>634</v>
       </c>
-      <c r="H154" s="9" t="s">
-        <v>15</v>
+      <c r="G154" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" s="9">
+        <v>620</v>
       </c>
       <c r="I154" s="9">
-        <v>620</v>
+        <v>868</v>
       </c>
       <c r="J154" s="9">
-        <v>868</v>
+        <v>418</v>
       </c>
       <c r="K154" s="9">
-        <v>418</v>
+        <v>351</v>
       </c>
       <c r="L154" s="9">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="M154" s="9">
-        <v>363</v>
+        <v>1596</v>
       </c>
       <c r="N154" s="9">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>40</v>
       </c>
@@ -5742,37 +5742,37 @@
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="11">
-        <v>1799</v>
+        <v>1034</v>
       </c>
       <c r="F155" s="11">
-        <v>1034</v>
-      </c>
-      <c r="G155" s="11">
         <v>25207</v>
       </c>
-      <c r="H155" s="11" t="s">
-        <v>15</v>
+      <c r="G155" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H155" s="11">
+        <v>5257</v>
       </c>
       <c r="I155" s="11">
-        <v>5257</v>
+        <v>5557</v>
       </c>
       <c r="J155" s="11">
-        <v>5557</v>
+        <v>8628</v>
       </c>
       <c r="K155" s="11">
-        <v>8628</v>
+        <v>6512</v>
       </c>
       <c r="L155" s="11">
-        <v>6512</v>
+        <v>4890</v>
       </c>
       <c r="M155" s="11">
-        <v>4890</v>
+        <v>3943</v>
       </c>
       <c r="N155" s="11">
-        <v>3943</v>
-      </c>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9567</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>41</v>
       </c>
@@ -5781,14 +5781,14 @@
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9">
-        <v>3254</v>
+        <v>3634</v>
       </c>
       <c r="F156" s="9">
-        <v>3634</v>
-      </c>
-      <c r="G156" s="9">
         <v>10441</v>
       </c>
+      <c r="G156" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H156" s="9" t="s">
         <v>15</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>42</v>
       </c>
@@ -5822,11 +5822,11 @@
       <c r="E157" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F157" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G157" s="11">
-        <v>0</v>
+      <c r="F157" s="11">
+        <v>0</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="H157" s="11" t="s">
         <v>15</v>
@@ -5850,7 +5850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>43</v>
       </c>
@@ -5858,75 +5858,75 @@
         <v>32</v>
       </c>
       <c r="D158" s="9"/>
-      <c r="E158" s="9" t="s">
-        <v>15</v>
+      <c r="E158" s="9">
+        <v>47</v>
       </c>
       <c r="F158" s="9">
-        <v>47</v>
-      </c>
-      <c r="G158" s="9">
         <v>232</v>
       </c>
-      <c r="H158" s="9" t="s">
-        <v>15</v>
+      <c r="G158" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H158" s="9">
+        <v>274</v>
       </c>
       <c r="I158" s="9">
-        <v>274</v>
+        <v>195</v>
       </c>
       <c r="J158" s="9">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="K158" s="9">
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="L158" s="9">
-        <v>363</v>
+        <v>466</v>
       </c>
       <c r="M158" s="9">
-        <v>466</v>
+        <v>23</v>
       </c>
       <c r="N158" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
       <c r="E159" s="13">
-        <v>16971</v>
+        <v>14737</v>
       </c>
       <c r="F159" s="13">
-        <v>14737</v>
+        <v>53458</v>
       </c>
       <c r="G159" s="13">
-        <v>53458</v>
+        <v>0</v>
       </c>
       <c r="H159" s="13">
-        <v>0</v>
+        <v>35893</v>
       </c>
       <c r="I159" s="13">
-        <v>35893</v>
+        <v>31469</v>
       </c>
       <c r="J159" s="13">
-        <v>31469</v>
+        <v>27833</v>
       </c>
       <c r="K159" s="13">
-        <v>27833</v>
+        <v>18296</v>
       </c>
       <c r="L159" s="13">
-        <v>18296</v>
+        <v>32569</v>
       </c>
       <c r="M159" s="13">
-        <v>32569</v>
+        <v>20373</v>
       </c>
       <c r="N159" s="13">
-        <v>20373</v>
-      </c>
-    </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29490</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -5941,7 +5941,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -5956,7 +5956,7 @@
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5971,26 +5971,26 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B163" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
       <c r="E163" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F163" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F163" s="6" t="s">
+      <c r="G163" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H163" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G163" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H163" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="I163" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J163" s="6" t="s">
         <v>9</v>
@@ -6008,7 +6008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -6023,7 +6023,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>36</v>
       </c>
@@ -6046,23 +6046,23 @@
       <c r="I165" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J165" s="9" t="s">
-        <v>15</v>
+      <c r="J165" s="9">
+        <v>291924051</v>
       </c>
       <c r="K165" s="9">
-        <v>291924051</v>
+        <v>185018182</v>
       </c>
       <c r="L165" s="9">
-        <v>185018182</v>
+        <v>167214286</v>
       </c>
       <c r="M165" s="9">
-        <v>167214286</v>
+        <v>140539683</v>
       </c>
       <c r="N165" s="9">
-        <v>140539683</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+        <v>108090909</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>37</v>
       </c>
@@ -6071,37 +6071,37 @@
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
-        <v>55038674</v>
+        <v>56265625</v>
       </c>
       <c r="F166" s="11">
-        <v>56265625</v>
-      </c>
-      <c r="G166" s="11">
         <v>55304348</v>
       </c>
-      <c r="H166" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I166" s="11">
+      <c r="G166" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H166" s="11">
         <v>57134328</v>
       </c>
-      <c r="J166" s="11" t="s">
-        <v>15</v>
+      <c r="I166" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J166" s="11">
+        <v>62428571</v>
       </c>
       <c r="K166" s="11">
-        <v>62428571</v>
+        <v>89166667</v>
       </c>
       <c r="L166" s="11">
-        <v>89166667</v>
+        <v>99263158</v>
       </c>
       <c r="M166" s="11">
-        <v>99263158</v>
+        <v>337615385</v>
       </c>
       <c r="N166" s="11">
-        <v>337615385</v>
-      </c>
-    </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+        <v>247442308</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>38</v>
       </c>
@@ -6110,37 +6110,37 @@
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9">
-        <v>34452830</v>
+        <v>47653846</v>
       </c>
       <c r="F167" s="9">
-        <v>47653846</v>
-      </c>
-      <c r="G167" s="9">
         <v>42771930</v>
       </c>
-      <c r="H167" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I167" s="9">
+      <c r="G167" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H167" s="9">
         <v>87846154</v>
       </c>
-      <c r="J167" s="9" t="s">
-        <v>15</v>
+      <c r="I167" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J167" s="9">
+        <v>146000000</v>
       </c>
       <c r="K167" s="9">
-        <v>146000000</v>
+        <v>121629032</v>
       </c>
       <c r="L167" s="9">
-        <v>121629032</v>
+        <v>135062500</v>
       </c>
       <c r="M167" s="9">
-        <v>135062500</v>
+        <v>220000000</v>
       </c>
       <c r="N167" s="9">
-        <v>220000000</v>
-      </c>
-    </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+        <v>108000000</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>39</v>
       </c>
@@ -6149,37 +6149,37 @@
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="11">
-        <v>5336364</v>
+        <v>6050000</v>
       </c>
       <c r="F168" s="11">
+        <v>5538462</v>
+      </c>
+      <c r="G168" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H168" s="11">
         <v>6050000</v>
       </c>
-      <c r="G168" s="11">
-        <v>5538462</v>
-      </c>
-      <c r="H168" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I168" s="11">
-        <v>6050000</v>
-      </c>
-      <c r="J168" s="11" t="s">
-        <v>15</v>
+      <c r="I168" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J168" s="11">
+        <v>7954128</v>
       </c>
       <c r="K168" s="11">
-        <v>7954128</v>
+        <v>8038462</v>
       </c>
       <c r="L168" s="11">
-        <v>8038462</v>
+        <v>9236842</v>
       </c>
       <c r="M168" s="11">
-        <v>9236842</v>
+        <v>9075000</v>
       </c>
       <c r="N168" s="11">
-        <v>9075000</v>
-      </c>
-    </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17549451</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>40</v>
       </c>
@@ -6188,37 +6188,37 @@
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9">
-        <v>600146</v>
+        <v>388866</v>
       </c>
       <c r="F169" s="9">
-        <v>388866</v>
-      </c>
-      <c r="G169" s="9">
         <v>600067</v>
       </c>
-      <c r="H169" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I169" s="9">
+      <c r="G169" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169" s="9">
         <v>1253333</v>
       </c>
-      <c r="J169" s="9" t="s">
-        <v>15</v>
+      <c r="I169" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J169" s="9">
+        <v>1850483</v>
       </c>
       <c r="K169" s="9">
-        <v>1850483</v>
+        <v>2600362</v>
       </c>
       <c r="L169" s="9">
-        <v>2600362</v>
+        <v>2600639</v>
       </c>
       <c r="M169" s="9">
-        <v>2600639</v>
+        <v>2601064</v>
       </c>
       <c r="N169" s="9">
-        <v>2601064</v>
-      </c>
-    </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2600264</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>41</v>
       </c>
@@ -6227,14 +6227,14 @@
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="11">
-        <v>43484375</v>
+        <v>59000000</v>
       </c>
       <c r="F170" s="11">
-        <v>59000000</v>
-      </c>
-      <c r="G170" s="11">
         <v>50061538</v>
       </c>
+      <c r="G170" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H170" s="11" t="s">
         <v>15</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>43</v>
       </c>
@@ -6265,38 +6265,38 @@
         <v>53</v>
       </c>
       <c r="D171" s="9"/>
-      <c r="E171" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F171" s="9">
+      <c r="E171" s="9">
         <v>46500000</v>
       </c>
+      <c r="F171" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G171" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H171" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I171" s="9">
+      <c r="H171" s="9">
         <v>47000000</v>
       </c>
-      <c r="J171" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K171" s="9">
+      <c r="I171" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J171" s="9">
         <v>195000000</v>
       </c>
-      <c r="L171" s="9" t="s">
-        <v>15</v>
+      <c r="K171" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L171" s="9">
+        <v>363000000</v>
       </c>
       <c r="M171" s="9">
-        <v>363000000</v>
-      </c>
-      <c r="N171" s="9">
         <v>233000000</v>
       </c>
-    </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N171" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -6311,7 +6311,7 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -6326,7 +6326,7 @@
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -6341,26 +6341,26 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B175" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
       <c r="E175" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F175" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F175" s="6" t="s">
+      <c r="G175" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H175" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G175" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H175" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="I175" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J175" s="6" t="s">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -6393,7 +6393,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>33</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>35</v>
       </c>
@@ -6440,12 +6440,12 @@
         <v>53</v>
       </c>
       <c r="D178" s="11"/>
-      <c r="E178" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F178" s="11">
+      <c r="E178" s="11">
         <v>13576596</v>
       </c>
+      <c r="F178" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="G178" s="11" t="s">
         <v>15</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>36</v>
       </c>
@@ -6488,29 +6488,29 @@
       <c r="G179" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H179" s="9" t="s">
-        <v>15</v>
+      <c r="H179" s="9">
+        <v>201444271</v>
       </c>
       <c r="I179" s="9">
-        <v>201444271</v>
+        <v>210662770</v>
       </c>
       <c r="J179" s="9">
-        <v>210662770</v>
+        <v>216291159</v>
       </c>
       <c r="K179" s="9">
-        <v>216291159</v>
+        <v>149559585</v>
       </c>
       <c r="L179" s="9">
-        <v>149559585</v>
+        <v>170648571</v>
       </c>
       <c r="M179" s="9">
-        <v>170648571</v>
+        <v>115138973</v>
       </c>
       <c r="N179" s="9">
-        <v>115138973</v>
-      </c>
-    </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+        <v>111945600</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>37</v>
       </c>
@@ -6519,37 +6519,37 @@
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11">
-        <v>55377049</v>
+        <v>57321918</v>
       </c>
       <c r="F180" s="11">
-        <v>57321918</v>
-      </c>
-      <c r="G180" s="11">
         <v>52385135</v>
       </c>
-      <c r="H180" s="11" t="s">
-        <v>15</v>
+      <c r="G180" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H180" s="11">
+        <v>96764706</v>
       </c>
       <c r="I180" s="11">
-        <v>96764706</v>
+        <v>61764103</v>
       </c>
       <c r="J180" s="11">
-        <v>61764103</v>
+        <v>80426230</v>
       </c>
       <c r="K180" s="11">
-        <v>80426230</v>
+        <v>93735849</v>
       </c>
       <c r="L180" s="11">
-        <v>93735849</v>
+        <v>272330275</v>
       </c>
       <c r="M180" s="11">
-        <v>272330275</v>
+        <v>274126050</v>
       </c>
       <c r="N180" s="11">
-        <v>274126050</v>
-      </c>
-    </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+        <v>163833333</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>38</v>
       </c>
@@ -6558,37 +6558,37 @@
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9">
-        <v>45779221</v>
+        <v>87476636</v>
       </c>
       <c r="F181" s="9">
-        <v>87476636</v>
-      </c>
-      <c r="G181" s="9">
         <v>-197580247</v>
       </c>
-      <c r="H181" s="9" t="s">
-        <v>15</v>
+      <c r="G181" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H181" s="9">
+        <v>74897059</v>
       </c>
       <c r="I181" s="9">
-        <v>74897059</v>
+        <v>113048780</v>
       </c>
       <c r="J181" s="9">
-        <v>113048780</v>
+        <v>119343750</v>
       </c>
       <c r="K181" s="9">
-        <v>119343750</v>
+        <v>129244444</v>
       </c>
       <c r="L181" s="9">
-        <v>129244444</v>
+        <v>136629032</v>
       </c>
       <c r="M181" s="9">
-        <v>136629032</v>
+        <v>113063492</v>
       </c>
       <c r="N181" s="9">
-        <v>113063492</v>
-      </c>
-    </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+        <v>122827586</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>39</v>
       </c>
@@ -6597,37 +6597,37 @@
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="11">
-        <v>5281056</v>
+        <v>5549085</v>
       </c>
       <c r="F182" s="11">
-        <v>5549085</v>
-      </c>
-      <c r="G182" s="11">
         <v>3300000</v>
       </c>
-      <c r="H182" s="11" t="s">
-        <v>15</v>
+      <c r="G182" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H182" s="11">
+        <v>8687356</v>
       </c>
       <c r="I182" s="11">
-        <v>8687356</v>
+        <v>6981818</v>
       </c>
       <c r="J182" s="11">
-        <v>6981818</v>
+        <v>6896154</v>
       </c>
       <c r="K182" s="11">
-        <v>6896154</v>
+        <v>9973592</v>
       </c>
       <c r="L182" s="11">
-        <v>9973592</v>
+        <v>12396648</v>
       </c>
       <c r="M182" s="11">
-        <v>12396648</v>
+        <v>13127681</v>
       </c>
       <c r="N182" s="11">
-        <v>13127681</v>
-      </c>
-    </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12398396</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>40</v>
       </c>
@@ -6636,37 +6636,37 @@
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9">
-        <v>599966</v>
+        <v>1199956</v>
       </c>
       <c r="F183" s="9">
-        <v>1199956</v>
-      </c>
-      <c r="G183" s="9">
         <v>-1810166</v>
       </c>
-      <c r="H183" s="9" t="s">
-        <v>15</v>
+      <c r="G183" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H183" s="9">
+        <v>2003442</v>
       </c>
       <c r="I183" s="9">
-        <v>2003442</v>
+        <v>1726380</v>
       </c>
       <c r="J183" s="9">
-        <v>1726380</v>
+        <v>2600016</v>
       </c>
       <c r="K183" s="9">
-        <v>2600016</v>
+        <v>2600049</v>
       </c>
       <c r="L183" s="9">
-        <v>2600049</v>
+        <v>2600052</v>
       </c>
       <c r="M183" s="9">
-        <v>2600052</v>
+        <v>2599971</v>
       </c>
       <c r="N183" s="9">
-        <v>2599971</v>
-      </c>
-    </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2599872</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>41</v>
       </c>
@@ -6675,14 +6675,14 @@
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="11">
-        <v>48777969</v>
+        <v>64669919</v>
       </c>
       <c r="F184" s="11">
-        <v>64669919</v>
-      </c>
-      <c r="G184" s="11">
         <v>-387202128</v>
       </c>
+      <c r="G184" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H184" s="11" t="s">
         <v>15</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>43</v>
       </c>
@@ -6716,35 +6716,35 @@
       <c r="E185" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F185" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G185" s="9">
+      <c r="F185" s="9">
         <v>148000000</v>
       </c>
-      <c r="H185" s="9" t="s">
-        <v>15</v>
+      <c r="G185" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H185" s="9">
+        <v>144500000</v>
       </c>
       <c r="I185" s="9">
         <v>144500000</v>
       </c>
-      <c r="J185" s="9">
-        <v>144500000</v>
-      </c>
-      <c r="K185" s="9" t="s">
-        <v>15</v>
+      <c r="J185" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K185" s="9">
+        <v>237000000</v>
       </c>
       <c r="L185" s="9">
-        <v>237000000</v>
-      </c>
-      <c r="M185" s="9">
         <v>225000000</v>
       </c>
-      <c r="N185" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M185" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N185" s="9">
+        <v>210000000</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -6759,7 +6759,7 @@
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -6774,7 +6774,7 @@
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -6789,26 +6789,26 @@
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
     </row>
-    <row r="189" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B189" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
       <c r="E189" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F189" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F189" s="6" t="s">
+      <c r="G189" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H189" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G189" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H189" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="I189" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J189" s="6" t="s">
         <v>9</v>
@@ -6826,7 +6826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -6841,7 +6841,7 @@
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="8" t="s">
         <v>33</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="10" t="s">
         <v>35</v>
       </c>
@@ -6888,12 +6888,12 @@
         <v>53</v>
       </c>
       <c r="D192" s="11"/>
-      <c r="E192" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F192" s="11">
+      <c r="E192" s="11">
         <v>13576596</v>
       </c>
+      <c r="F192" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="G192" s="11" t="s">
         <v>15</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="8" t="s">
         <v>36</v>
       </c>
@@ -6936,29 +6936,29 @@
       <c r="G193" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H193" s="9" t="s">
-        <v>15</v>
+      <c r="H193" s="9">
+        <v>200770216</v>
       </c>
       <c r="I193" s="9">
-        <v>200770216</v>
+        <v>205097345</v>
       </c>
       <c r="J193" s="9">
-        <v>205097345</v>
+        <v>227607353</v>
       </c>
       <c r="K193" s="9">
-        <v>227607353</v>
+        <v>151099363</v>
       </c>
       <c r="L193" s="9">
-        <v>151099363</v>
+        <v>173229750</v>
       </c>
       <c r="M193" s="9">
-        <v>173229750</v>
+        <v>117490196</v>
       </c>
       <c r="N193" s="9">
-        <v>117490196</v>
-      </c>
-    </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+        <v>113548624</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="10" t="s">
         <v>37</v>
       </c>
@@ -6967,37 +6967,37 @@
       </c>
       <c r="D194" s="11"/>
       <c r="E194" s="11">
-        <v>55133005</v>
+        <v>56937063</v>
       </c>
       <c r="F194" s="11">
-        <v>56937063</v>
-      </c>
-      <c r="G194" s="11">
         <v>50792157</v>
       </c>
-      <c r="H194" s="11" t="s">
-        <v>15</v>
+      <c r="G194" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H194" s="11">
+        <v>72714286</v>
       </c>
       <c r="I194" s="11">
-        <v>72714286</v>
+        <v>61043307</v>
       </c>
       <c r="J194" s="11">
-        <v>61043307</v>
+        <v>76740458</v>
       </c>
       <c r="K194" s="11">
-        <v>76740458</v>
+        <v>90260870</v>
       </c>
       <c r="L194" s="11">
-        <v>90260870</v>
+        <v>184394737</v>
       </c>
       <c r="M194" s="11">
-        <v>184394737</v>
+        <v>313529412</v>
       </c>
       <c r="N194" s="11">
-        <v>313529412</v>
-      </c>
-    </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+        <v>200098039</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B195" s="8" t="s">
         <v>38</v>
       </c>
@@ -7006,37 +7006,37 @@
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="9">
-        <v>37611111</v>
+        <v>65191489</v>
       </c>
       <c r="F195" s="9">
-        <v>65191489</v>
-      </c>
-      <c r="G195" s="9">
         <v>-48503448</v>
       </c>
-      <c r="H195" s="9" t="s">
-        <v>15</v>
+      <c r="G195" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H195" s="9">
+        <v>-176153846</v>
       </c>
       <c r="I195" s="9">
-        <v>-176153846</v>
+        <v>106808081</v>
       </c>
       <c r="J195" s="9">
-        <v>106808081</v>
+        <v>116888889</v>
       </c>
       <c r="K195" s="9">
-        <v>116888889</v>
+        <v>123032967</v>
       </c>
       <c r="L195" s="9">
-        <v>123032967</v>
+        <v>134105263</v>
       </c>
       <c r="M195" s="9">
-        <v>134105263</v>
+        <v>117362069</v>
       </c>
       <c r="N195" s="9">
-        <v>117362069</v>
-      </c>
-    </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+        <v>116650000</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="10" t="s">
         <v>39</v>
       </c>
@@ -7045,37 +7045,37 @@
       </c>
       <c r="D196" s="11"/>
       <c r="E196" s="11">
-        <v>5249231</v>
+        <v>5549085</v>
       </c>
       <c r="F196" s="11">
-        <v>5549085</v>
-      </c>
-      <c r="G196" s="11">
         <v>3219758</v>
       </c>
-      <c r="H196" s="11" t="s">
-        <v>15</v>
+      <c r="G196" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H196" s="11">
+        <v>8447661</v>
       </c>
       <c r="I196" s="11">
-        <v>8447661</v>
+        <v>6838008</v>
       </c>
       <c r="J196" s="11">
-        <v>6838008</v>
+        <v>6993068</v>
       </c>
       <c r="K196" s="11">
-        <v>6993068</v>
+        <v>9848797</v>
       </c>
       <c r="L196" s="11">
-        <v>9848797</v>
+        <v>12420561</v>
       </c>
       <c r="M196" s="11">
-        <v>12420561</v>
+        <v>12547516</v>
       </c>
       <c r="N196" s="11">
-        <v>12547516</v>
-      </c>
-    </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12494071</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="8" t="s">
         <v>40</v>
       </c>
@@ -7084,37 +7084,37 @@
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9">
-        <v>599930</v>
+        <v>1009897</v>
       </c>
       <c r="F197" s="9">
-        <v>1009897</v>
-      </c>
-      <c r="G197" s="9">
         <v>-1692271</v>
       </c>
-      <c r="H197" s="9" t="s">
-        <v>15</v>
+      <c r="G197" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H197" s="9">
+        <v>2143766</v>
       </c>
       <c r="I197" s="9">
-        <v>2143766</v>
+        <v>1671243</v>
       </c>
       <c r="J197" s="9">
-        <v>1671243</v>
+        <v>2410980</v>
       </c>
       <c r="K197" s="9">
-        <v>2410980</v>
+        <v>2600015</v>
       </c>
       <c r="L197" s="9">
-        <v>2600015</v>
+        <v>2600016</v>
       </c>
       <c r="M197" s="9">
-        <v>2600016</v>
+        <v>2599828</v>
       </c>
       <c r="N197" s="9">
-        <v>2599828</v>
-      </c>
-    </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2599981</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="10" t="s">
         <v>41</v>
       </c>
@@ -7123,14 +7123,14 @@
       </c>
       <c r="D198" s="11"/>
       <c r="E198" s="11">
-        <v>48051724</v>
+        <v>63952297</v>
       </c>
       <c r="F198" s="11">
-        <v>63952297</v>
-      </c>
-      <c r="G198" s="11">
         <v>-229913534</v>
       </c>
+      <c r="G198" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H198" s="11" t="s">
         <v>15</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
         <v>43</v>
       </c>
@@ -7161,38 +7161,38 @@
         <v>53</v>
       </c>
       <c r="D199" s="9"/>
-      <c r="E199" s="9" t="s">
-        <v>15</v>
+      <c r="E199" s="9">
+        <v>46000000</v>
       </c>
       <c r="F199" s="9">
-        <v>46000000</v>
-      </c>
-      <c r="G199" s="9">
         <v>78000000</v>
       </c>
-      <c r="H199" s="9" t="s">
-        <v>15</v>
+      <c r="G199" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H199" s="9">
+        <v>201000000</v>
       </c>
       <c r="I199" s="9">
-        <v>201000000</v>
+        <v>163000000</v>
       </c>
       <c r="J199" s="9">
-        <v>163000000</v>
+        <v>195000000</v>
       </c>
       <c r="K199" s="9">
-        <v>195000000</v>
+        <v>111000000</v>
       </c>
       <c r="L199" s="9">
-        <v>111000000</v>
+        <v>347000000</v>
       </c>
       <c r="M199" s="9">
-        <v>347000000</v>
+        <v>221500000</v>
       </c>
       <c r="N199" s="9">
-        <v>221500000</v>
-      </c>
-    </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+        <v>242000000</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -7207,7 +7207,7 @@
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -7222,7 +7222,7 @@
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -7237,26 +7237,26 @@
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
     </row>
-    <row r="203" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B203" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
       <c r="E203" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F203" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F203" s="6" t="s">
+      <c r="G203" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H203" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G203" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H203" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="I203" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J203" s="6" t="s">
         <v>9</v>
@@ -7274,7 +7274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -7289,7 +7289,7 @@
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B205" s="8" t="s">
         <v>36</v>
       </c>
@@ -7306,29 +7306,29 @@
       <c r="G205" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H205" s="9" t="s">
-        <v>15</v>
+      <c r="H205" s="9">
+        <v>186927835</v>
       </c>
       <c r="I205" s="9">
-        <v>186927835</v>
+        <v>294240506</v>
       </c>
       <c r="J205" s="9">
-        <v>294240506</v>
+        <v>185018182</v>
       </c>
       <c r="K205" s="9">
-        <v>185018182</v>
+        <v>167214286</v>
       </c>
       <c r="L205" s="9">
-        <v>167214286</v>
+        <v>140539683</v>
       </c>
       <c r="M205" s="9">
-        <v>140539683</v>
+        <v>108000000</v>
       </c>
       <c r="N205" s="9">
-        <v>108000000</v>
-      </c>
-    </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+        <v>101879121</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
         <v>37</v>
       </c>
@@ -7339,35 +7339,35 @@
       <c r="E206" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F206" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G206" s="11">
+      <c r="F206" s="11">
         <v>59675000</v>
       </c>
-      <c r="H206" s="11" t="s">
-        <v>15</v>
+      <c r="G206" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H206" s="11">
+        <v>61913793</v>
       </c>
       <c r="I206" s="11">
-        <v>61913793</v>
+        <v>62476190</v>
       </c>
       <c r="J206" s="11">
-        <v>62476190</v>
+        <v>89166667</v>
       </c>
       <c r="K206" s="11">
-        <v>89166667</v>
+        <v>99263158</v>
       </c>
       <c r="L206" s="11">
-        <v>99263158</v>
+        <v>337615385</v>
       </c>
       <c r="M206" s="11">
-        <v>337615385</v>
+        <v>247442308</v>
       </c>
       <c r="N206" s="11">
-        <v>247442308</v>
-      </c>
-    </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+        <v>228700000</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B207" s="8" t="s">
         <v>38</v>
       </c>
@@ -7378,35 +7378,35 @@
       <c r="E207" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F207" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G207" s="9">
+      <c r="F207" s="9">
         <v>103135593</v>
       </c>
-      <c r="H207" s="9" t="s">
-        <v>15</v>
+      <c r="G207" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H207" s="9">
+        <v>105513158</v>
       </c>
       <c r="I207" s="9">
-        <v>105513158</v>
+        <v>146000000</v>
       </c>
       <c r="J207" s="9">
-        <v>146000000</v>
+        <v>121629032</v>
       </c>
       <c r="K207" s="9">
-        <v>121629032</v>
+        <v>135062500</v>
       </c>
       <c r="L207" s="9">
-        <v>135062500</v>
+        <v>220000000</v>
       </c>
       <c r="M207" s="9">
-        <v>220000000</v>
+        <v>108000000</v>
       </c>
       <c r="N207" s="9">
-        <v>108000000</v>
-      </c>
-    </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+        <v>125481481</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B208" s="10" t="s">
         <v>39</v>
       </c>
@@ -7417,35 +7417,35 @@
       <c r="E208" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F208" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G208" s="11">
+      <c r="F208" s="11">
         <v>6096154</v>
       </c>
-      <c r="H208" s="11" t="s">
-        <v>15</v>
+      <c r="G208" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H208" s="11">
+        <v>6888889</v>
       </c>
       <c r="I208" s="11">
-        <v>6888889</v>
+        <v>8037037</v>
       </c>
       <c r="J208" s="11">
-        <v>8037037</v>
+        <v>8038462</v>
       </c>
       <c r="K208" s="11">
-        <v>8038462</v>
+        <v>9236842</v>
       </c>
       <c r="L208" s="11">
-        <v>9236842</v>
+        <v>9075000</v>
       </c>
       <c r="M208" s="11">
-        <v>9075000</v>
+        <v>17161290</v>
       </c>
       <c r="N208" s="11">
-        <v>17161290</v>
-      </c>
-    </row>
-    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17350000</v>
+      </c>
+    </row>
+    <row r="209" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B209" s="8" t="s">
         <v>40</v>
       </c>
@@ -7456,35 +7456,35 @@
       <c r="E209" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F209" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G209" s="9">
+      <c r="F209" s="9">
         <v>810853</v>
       </c>
-      <c r="H209" s="9" t="s">
-        <v>15</v>
+      <c r="G209" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H209" s="9">
+        <v>1850405</v>
       </c>
       <c r="I209" s="9">
-        <v>1850405</v>
+        <v>1849867</v>
       </c>
       <c r="J209" s="9">
-        <v>1849867</v>
+        <v>2600362</v>
       </c>
       <c r="K209" s="9">
-        <v>2600362</v>
+        <v>2600639</v>
       </c>
       <c r="L209" s="9">
-        <v>2600639</v>
+        <v>2601064</v>
       </c>
       <c r="M209" s="9">
-        <v>2601064</v>
+        <v>2602640</v>
       </c>
       <c r="N209" s="9">
-        <v>2602640</v>
-      </c>
-    </row>
-    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2599728</v>
+      </c>
+    </row>
+    <row r="210" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B210" s="10" t="s">
         <v>41</v>
       </c>
@@ -7495,12 +7495,12 @@
       <c r="E210" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F210" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G210" s="11">
+      <c r="F210" s="11">
         <v>165730159</v>
       </c>
+      <c r="G210" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H210" s="11" t="s">
         <v>15</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B211" s="8" t="s">
         <v>43</v>
       </c>
@@ -7534,35 +7534,35 @@
       <c r="E211" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F211" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G211" s="9">
+      <c r="F211" s="9">
         <v>232000000</v>
       </c>
-      <c r="H211" s="9" t="s">
-        <v>15</v>
+      <c r="G211" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H211" s="9">
+        <v>137000000</v>
       </c>
       <c r="I211" s="9">
-        <v>137000000</v>
-      </c>
-      <c r="J211" s="9">
         <v>97500000</v>
       </c>
-      <c r="K211" s="9" t="s">
-        <v>15</v>
+      <c r="J211" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K211" s="9">
+        <v>363000000</v>
       </c>
       <c r="L211" s="9">
-        <v>363000000</v>
-      </c>
-      <c r="M211" s="9">
         <v>233000000</v>
       </c>
-      <c r="N211" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M211" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N211" s="9">
+        <v>201000000</v>
+      </c>
+    </row>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -7577,7 +7577,7 @@
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
     </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -7592,7 +7592,7 @@
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
     </row>
-    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -7607,26 +7607,26 @@
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
     </row>
-    <row r="215" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B215" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
       <c r="E215" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F215" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F215" s="6" t="s">
+      <c r="G215" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H215" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G215" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H215" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="I215" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J215" s="6" t="s">
         <v>9</v>
@@ -7644,7 +7644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -7659,44 +7659,44 @@
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
     </row>
-    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B217" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
       <c r="E217" s="9">
-        <v>9557</v>
+        <v>17862</v>
       </c>
       <c r="F217" s="9">
-        <v>17862</v>
-      </c>
-      <c r="G217" s="9">
         <v>15185</v>
       </c>
-      <c r="H217" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I217" s="9">
+      <c r="G217" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H217" s="9">
         <v>27738</v>
       </c>
-      <c r="J217" s="9" t="s">
-        <v>15</v>
+      <c r="I217" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J217" s="9">
+        <v>17060</v>
       </c>
       <c r="K217" s="9">
-        <v>17060</v>
+        <v>30037</v>
       </c>
       <c r="L217" s="9">
-        <v>30037</v>
+        <v>40450</v>
       </c>
       <c r="M217" s="9">
-        <v>40450</v>
+        <v>67987</v>
       </c>
       <c r="N217" s="9">
-        <v>67987</v>
-      </c>
-    </row>
-    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
+        <v>33347</v>
+      </c>
+    </row>
+    <row r="218" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B218" s="10" t="s">
         <v>59</v>
       </c>
@@ -7708,17 +7708,17 @@
       <c r="F218" s="11">
         <v>0</v>
       </c>
-      <c r="G218" s="11">
-        <v>0</v>
-      </c>
-      <c r="H218" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I218" s="11">
-        <v>0</v>
-      </c>
-      <c r="J218" s="11" t="s">
-        <v>15</v>
+      <c r="G218" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H218" s="11">
+        <v>0</v>
+      </c>
+      <c r="I218" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J218" s="11">
+        <v>0</v>
       </c>
       <c r="K218" s="11">
         <v>0</v>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B219" s="8" t="s">
         <v>60</v>
       </c>
@@ -7745,17 +7745,17 @@
       <c r="F219" s="9">
         <v>0</v>
       </c>
-      <c r="G219" s="9">
-        <v>0</v>
-      </c>
-      <c r="H219" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I219" s="9">
-        <v>0</v>
-      </c>
-      <c r="J219" s="9" t="s">
-        <v>15</v>
+      <c r="G219" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H219" s="9">
+        <v>0</v>
+      </c>
+      <c r="I219" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J219" s="9">
+        <v>0</v>
       </c>
       <c r="K219" s="9">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B220" s="10" t="s">
         <v>61</v>
       </c>
@@ -7782,17 +7782,17 @@
       <c r="F220" s="11">
         <v>0</v>
       </c>
-      <c r="G220" s="11">
-        <v>0</v>
-      </c>
-      <c r="H220" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I220" s="11">
-        <v>0</v>
-      </c>
-      <c r="J220" s="11" t="s">
-        <v>15</v>
+      <c r="G220" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H220" s="11">
+        <v>0</v>
+      </c>
+      <c r="I220" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J220" s="11">
+        <v>0</v>
       </c>
       <c r="K220" s="11">
         <v>0</v>
@@ -7807,155 +7807,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B221" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
       <c r="E221" s="9">
-        <v>97316</v>
+        <v>72734</v>
       </c>
       <c r="F221" s="9">
-        <v>72734</v>
-      </c>
-      <c r="G221" s="9">
         <v>-55907</v>
       </c>
-      <c r="H221" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I221" s="9">
+      <c r="G221" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H221" s="9">
         <v>-57667</v>
       </c>
-      <c r="J221" s="9" t="s">
-        <v>15</v>
+      <c r="I221" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J221" s="9">
+        <v>0</v>
       </c>
       <c r="K221" s="9">
-        <v>0</v>
+        <v>20351</v>
       </c>
       <c r="L221" s="9">
-        <v>20351</v>
+        <v>157738</v>
       </c>
       <c r="M221" s="9">
-        <v>157738</v>
+        <v>300136</v>
       </c>
       <c r="N221" s="9">
-        <v>300136</v>
-      </c>
-    </row>
-    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
+        <v>115048</v>
+      </c>
+    </row>
+    <row r="222" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B222" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
       <c r="E222" s="11">
-        <v>16056</v>
+        <v>3226</v>
       </c>
       <c r="F222" s="11">
-        <v>3226</v>
-      </c>
-      <c r="G222" s="11">
         <v>10018</v>
       </c>
-      <c r="H222" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I222" s="11">
+      <c r="G222" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H222" s="11">
         <v>81801</v>
       </c>
-      <c r="J222" s="11" t="s">
-        <v>15</v>
+      <c r="I222" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J222" s="11">
+        <v>24864</v>
       </c>
       <c r="K222" s="11">
-        <v>24864</v>
+        <v>70024</v>
       </c>
       <c r="L222" s="11">
-        <v>70024</v>
+        <v>59402</v>
       </c>
       <c r="M222" s="11">
-        <v>59402</v>
+        <v>66272</v>
       </c>
       <c r="N222" s="11">
-        <v>66272</v>
-      </c>
-    </row>
-    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
+        <v>38784</v>
+      </c>
+    </row>
+    <row r="223" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B223" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
       <c r="E223" s="9">
-        <v>33327</v>
+        <v>33222</v>
       </c>
       <c r="F223" s="9">
-        <v>33222</v>
-      </c>
-      <c r="G223" s="9">
         <v>-15030</v>
       </c>
-      <c r="H223" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I223" s="9">
+      <c r="G223" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H223" s="9">
         <v>50376</v>
       </c>
-      <c r="J223" s="9" t="s">
-        <v>15</v>
+      <c r="I223" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J223" s="9">
+        <v>44344</v>
       </c>
       <c r="K223" s="9">
-        <v>44344</v>
+        <v>45568</v>
       </c>
       <c r="L223" s="9">
-        <v>45568</v>
+        <v>48995</v>
       </c>
       <c r="M223" s="9">
-        <v>48995</v>
+        <v>50190</v>
       </c>
       <c r="N223" s="9">
-        <v>50190</v>
-      </c>
-    </row>
-    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
+        <v>61292</v>
+      </c>
+    </row>
+    <row r="224" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B224" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
       <c r="E224" s="11">
-        <v>40641</v>
+        <v>38893</v>
       </c>
       <c r="F224" s="11">
-        <v>38893</v>
-      </c>
-      <c r="G224" s="11">
         <v>-370</v>
       </c>
-      <c r="H224" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I224" s="11">
+      <c r="G224" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H224" s="11">
         <v>146527</v>
       </c>
-      <c r="J224" s="11" t="s">
-        <v>15</v>
+      <c r="I224" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J224" s="11">
+        <v>87583</v>
       </c>
       <c r="K224" s="11">
-        <v>87583</v>
+        <v>173210</v>
       </c>
       <c r="L224" s="11">
-        <v>173210</v>
+        <v>140299</v>
       </c>
       <c r="M224" s="11">
-        <v>140299</v>
+        <v>148481</v>
       </c>
       <c r="N224" s="11">
-        <v>148481</v>
-      </c>
-    </row>
-    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
+        <v>200983</v>
+      </c>
+    </row>
+    <row r="225" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B225" s="8" t="s">
         <v>66</v>
       </c>
@@ -7967,17 +7967,17 @@
       <c r="F225" s="9">
         <v>0</v>
       </c>
-      <c r="G225" s="9">
-        <v>0</v>
-      </c>
-      <c r="H225" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I225" s="9">
-        <v>0</v>
-      </c>
-      <c r="J225" s="9" t="s">
-        <v>15</v>
+      <c r="G225" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H225" s="9">
+        <v>0</v>
+      </c>
+      <c r="I225" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J225" s="9">
+        <v>0</v>
       </c>
       <c r="K225" s="9">
         <v>0</v>
@@ -7992,81 +7992,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B226" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C226" s="11"/>
       <c r="D226" s="11"/>
       <c r="E226" s="11">
-        <v>-16189</v>
+        <v>52842</v>
       </c>
       <c r="F226" s="11">
-        <v>52842</v>
-      </c>
-      <c r="G226" s="11">
         <v>178154</v>
       </c>
-      <c r="H226" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I226" s="11">
+      <c r="G226" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H226" s="11">
         <v>172680</v>
       </c>
-      <c r="J226" s="11" t="s">
-        <v>15</v>
+      <c r="I226" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J226" s="11">
+        <v>198763</v>
       </c>
       <c r="K226" s="11">
-        <v>198763</v>
+        <v>83545</v>
       </c>
       <c r="L226" s="11">
-        <v>83545</v>
+        <v>49228</v>
       </c>
       <c r="M226" s="11">
-        <v>49228</v>
+        <v>-145352</v>
       </c>
       <c r="N226" s="11">
-        <v>-145353</v>
-      </c>
-    </row>
-    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
+        <v>140579</v>
+      </c>
+    </row>
+    <row r="227" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B227" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C227" s="15"/>
       <c r="D227" s="15"/>
       <c r="E227" s="15">
-        <v>180708</v>
+        <v>218779</v>
       </c>
       <c r="F227" s="15">
-        <v>218779</v>
+        <v>132050</v>
       </c>
       <c r="G227" s="15">
-        <v>132050</v>
+        <v>0</v>
       </c>
       <c r="H227" s="15">
-        <v>0</v>
+        <v>421455</v>
       </c>
       <c r="I227" s="15">
-        <v>421455</v>
+        <v>0</v>
       </c>
       <c r="J227" s="15">
-        <v>0</v>
+        <v>372614</v>
       </c>
       <c r="K227" s="15">
-        <v>372614</v>
+        <v>422735</v>
       </c>
       <c r="L227" s="15">
-        <v>422735</v>
+        <v>496112</v>
       </c>
       <c r="M227" s="15">
-        <v>496112</v>
+        <v>487714</v>
       </c>
       <c r="N227" s="15">
-        <v>487713</v>
-      </c>
-    </row>
-    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
+        <v>590033</v>
+      </c>
+    </row>
+    <row r="228" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -8081,7 +8081,7 @@
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
     </row>
-    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -8096,7 +8096,7 @@
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
     </row>
-    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -8111,7 +8111,7 @@
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
     </row>
-    <row r="231" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B231" s="7" t="s">
         <v>68</v>
       </c>
@@ -8128,7 +8128,7 @@
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
     </row>
-    <row r="233" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B233" s="8" t="s">
         <v>69</v>
       </c>
@@ -8139,7 +8139,7 @@
       <c r="E233" s="9"/>
       <c r="F233" s="9"/>
     </row>
-    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B234" s="10" t="s">
         <v>71</v>
       </c>
@@ -8150,7 +8150,7 @@
       <c r="E234" s="11"/>
       <c r="F234" s="11"/>
     </row>
-    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B235" s="8" t="s">
         <v>73</v>
       </c>
@@ -8161,7 +8161,7 @@
       <c r="E235" s="9"/>
       <c r="F235" s="9"/>
     </row>
-    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B236" s="10" t="s">
         <v>74</v>
       </c>
@@ -8172,7 +8172,7 @@
       <c r="E236" s="11"/>
       <c r="F236" s="11"/>
     </row>
-    <row r="237" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B237" s="8" t="s">
         <v>76</v>
       </c>
@@ -8183,7 +8183,7 @@
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
     </row>
-    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B238" s="10" t="s">
         <v>78</v>
       </c>
@@ -8194,7 +8194,7 @@
       <c r="E238" s="11"/>
       <c r="F238" s="11"/>
     </row>
-    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B239" s="8" t="s">
         <v>80</v>
       </c>
@@ -8205,7 +8205,7 @@
       <c r="E239" s="9"/>
       <c r="F239" s="9"/>
     </row>
-    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B240" s="10" t="s">
         <v>81</v>
       </c>
@@ -8216,7 +8216,7 @@
       <c r="E240" s="11"/>
       <c r="F240" s="11"/>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B241" s="8" t="s">
         <v>83</v>
       </c>
@@ -8227,7 +8227,7 @@
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B242" s="10" t="s">
         <v>84</v>
       </c>
